--- a/excel/TaskProgressReport/Team_Task_Progress_System_Enhanced_JA.xlsx
+++ b/excel/TaskProgressReport/Team_Task_Progress_System_Enhanced_JA.xlsx
@@ -15,6 +15,8 @@
   </sheets>
   <definedNames>
     <definedName name="impact_list">リスト!$C$1:$C$3</definedName>
+    <definedName name="owner_list">リスト!$E$1:$E$10</definedName>
+    <definedName name="resolver_list">リスト!$F$1:$F$10</definedName>
     <definedName name="solve_status_list">リスト!$D$1:$D$3</definedName>
     <definedName name="status_list">リスト!$A$1:$A$5</definedName>
     <definedName name="yesno_list">リスト!$B$1:$B$2</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>タスクID</t>
   </si>
@@ -147,6 +149,36 @@
   </si>
   <si>
     <t>解決済み</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+  </si>
+  <si>
+    <t>鈴木</t>
+  </si>
+  <si>
+    <t>高橋</t>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>伊藤</t>
+  </si>
+  <si>
+    <t>渡辺</t>
+  </si>
+  <si>
+    <t>山本</t>
+  </si>
+  <si>
+    <t>中村</t>
+  </si>
+  <si>
+    <t>小林</t>
+  </si>
+  <si>
+    <t>加藤</t>
   </si>
   <si>
     <t>説明:</t>
@@ -5596,15 +5628,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I500">
       <formula1>status_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C500">
+      <formula1>owner_list</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K500">
       <formula1>yesno_list</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L500">
       <formula1>impact_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M500">
+      <formula1>resolver_list</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5662,6 +5700,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C500">
+      <formula1>owner_list</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5707,12 +5750,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F500">
       <formula1>impact_list</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H500">
       <formula1>solve_status_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I500">
+      <formula1>resolver_list</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5721,13 +5767,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -5740,8 +5786,14 @@
       <c r="D1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5754,8 +5806,14 @@
       <c r="D2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -5765,15 +5823,73 @@
       <c r="D3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5791,52 +5907,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TaskProgressReport/Team_Task_Progress_System_Enhanced_JA.xlsx
+++ b/excel/TaskProgressReport/Team_Task_Progress_System_Enhanced_JA.xlsx
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>IF(I2="完了",0, IF(TODAY()&gt;F2, TODAY()-F2, 0))</f>
+        <f>IF(I2="完了","", IF(OR(F2="", F2=0), "", IF(TODAY()&gt;F2, TODAY()-F2, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f>IF(I3="完了",0, IF(TODAY()&gt;F3, TODAY()-F3, 0))</f>
+        <f>IF(I3="完了","", IF(OR(F3="", F3=0), "", IF(TODAY()&gt;F3, TODAY()-F3, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f>IF(I4="完了",0, IF(TODAY()&gt;F4, TODAY()-F4, 0))</f>
+        <f>IF(I4="完了","", IF(OR(F4="", F4=0), "", IF(TODAY()&gt;F4, TODAY()-F4, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f>IF(I5="完了",0, IF(TODAY()&gt;F5, TODAY()-F5, 0))</f>
+        <f>IF(I5="完了","", IF(OR(F5="", F5=0), "", IF(TODAY()&gt;F5, TODAY()-F5, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f>IF(I6="完了",0, IF(TODAY()&gt;F6, TODAY()-F6, 0))</f>
+        <f>IF(I6="完了","", IF(OR(F6="", F6=0), "", IF(TODAY()&gt;F6, TODAY()-F6, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>IF(I7="完了",0, IF(TODAY()&gt;F7, TODAY()-F7, 0))</f>
+        <f>IF(I7="完了","", IF(OR(F7="", F7=0), "", IF(TODAY()&gt;F7, TODAY()-F7, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f>IF(I8="完了",0, IF(TODAY()&gt;F8, TODAY()-F8, 0))</f>
+        <f>IF(I8="完了","", IF(OR(F8="", F8=0), "", IF(TODAY()&gt;F8, TODAY()-F8, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f>IF(I9="完了",0, IF(TODAY()&gt;F9, TODAY()-F9, 0))</f>
+        <f>IF(I9="完了","", IF(OR(F9="", F9=0), "", IF(TODAY()&gt;F9, TODAY()-F9, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f>IF(I10="完了",0, IF(TODAY()&gt;F10, TODAY()-F10, 0))</f>
+        <f>IF(I10="完了","", IF(OR(F10="", F10=0), "", IF(TODAY()&gt;F10, TODAY()-F10, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <f>IF(I11="完了",0, IF(TODAY()&gt;F11, TODAY()-F11, 0))</f>
+        <f>IF(I11="完了","", IF(OR(F11="", F11=0), "", IF(TODAY()&gt;F11, TODAY()-F11, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <f>IF(I12="完了",0, IF(TODAY()&gt;F12, TODAY()-F12, 0))</f>
+        <f>IF(I12="完了","", IF(OR(F12="", F12=0), "", IF(TODAY()&gt;F12, TODAY()-F12, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f>IF(I13="完了",0, IF(TODAY()&gt;F13, TODAY()-F13, 0))</f>
+        <f>IF(I13="完了","", IF(OR(F13="", F13=0), "", IF(TODAY()&gt;F13, TODAY()-F13, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f>IF(I14="完了",0, IF(TODAY()&gt;F14, TODAY()-F14, 0))</f>
+        <f>IF(I14="完了","", IF(OR(F14="", F14=0), "", IF(TODAY()&gt;F14, TODAY()-F14, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f>IF(I15="完了",0, IF(TODAY()&gt;F15, TODAY()-F15, 0))</f>
+        <f>IF(I15="完了","", IF(OR(F15="", F15=0), "", IF(TODAY()&gt;F15, TODAY()-F15, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f>IF(I16="完了",0, IF(TODAY()&gt;F16, TODAY()-F16, 0))</f>
+        <f>IF(I16="完了","", IF(OR(F16="", F16=0), "", IF(TODAY()&gt;F16, TODAY()-F16, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f>IF(I17="完了",0, IF(TODAY()&gt;F17, TODAY()-F17, 0))</f>
+        <f>IF(I17="完了","", IF(OR(F17="", F17=0), "", IF(TODAY()&gt;F17, TODAY()-F17, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f>IF(I18="完了",0, IF(TODAY()&gt;F18, TODAY()-F18, 0))</f>
+        <f>IF(I18="完了","", IF(OR(F18="", F18=0), "", IF(TODAY()&gt;F18, TODAY()-F18, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f>IF(I19="完了",0, IF(TODAY()&gt;F19, TODAY()-F19, 0))</f>
+        <f>IF(I19="完了","", IF(OR(F19="", F19=0), "", IF(TODAY()&gt;F19, TODAY()-F19, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f>IF(I20="完了",0, IF(TODAY()&gt;F20, TODAY()-F20, 0))</f>
+        <f>IF(I20="完了","", IF(OR(F20="", F20=0), "", IF(TODAY()&gt;F20, TODAY()-F20, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <f>IF(I21="完了",0, IF(TODAY()&gt;F21, TODAY()-F21, 0))</f>
+        <f>IF(I21="完了","", IF(OR(F21="", F21=0), "", IF(TODAY()&gt;F21, TODAY()-F21, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f>IF(I22="完了",0, IF(TODAY()&gt;F22, TODAY()-F22, 0))</f>
+        <f>IF(I22="完了","", IF(OR(F22="", F22=0), "", IF(TODAY()&gt;F22, TODAY()-F22, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <f>IF(I23="完了",0, IF(TODAY()&gt;F23, TODAY()-F23, 0))</f>
+        <f>IF(I23="完了","", IF(OR(F23="", F23=0), "", IF(TODAY()&gt;F23, TODAY()-F23, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <f>IF(I24="完了",0, IF(TODAY()&gt;F24, TODAY()-F24, 0))</f>
+        <f>IF(I24="完了","", IF(OR(F24="", F24=0), "", IF(TODAY()&gt;F24, TODAY()-F24, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <f>IF(I25="完了",0, IF(TODAY()&gt;F25, TODAY()-F25, 0))</f>
+        <f>IF(I25="完了","", IF(OR(F25="", F25=0), "", IF(TODAY()&gt;F25, TODAY()-F25, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <f>IF(I26="完了",0, IF(TODAY()&gt;F26, TODAY()-F26, 0))</f>
+        <f>IF(I26="完了","", IF(OR(F26="", F26=0), "", IF(TODAY()&gt;F26, TODAY()-F26, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <f>IF(I27="完了",0, IF(TODAY()&gt;F27, TODAY()-F27, 0))</f>
+        <f>IF(I27="完了","", IF(OR(F27="", F27=0), "", IF(TODAY()&gt;F27, TODAY()-F27, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <f>IF(I28="完了",0, IF(TODAY()&gt;F28, TODAY()-F28, 0))</f>
+        <f>IF(I28="完了","", IF(OR(F28="", F28=0), "", IF(TODAY()&gt;F28, TODAY()-F28, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <f>IF(I29="完了",0, IF(TODAY()&gt;F29, TODAY()-F29, 0))</f>
+        <f>IF(I29="完了","", IF(OR(F29="", F29=0), "", IF(TODAY()&gt;F29, TODAY()-F29, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <f>IF(I30="完了",0, IF(TODAY()&gt;F30, TODAY()-F30, 0))</f>
+        <f>IF(I30="完了","", IF(OR(F30="", F30=0), "", IF(TODAY()&gt;F30, TODAY()-F30, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f>IF(I31="完了",0, IF(TODAY()&gt;F31, TODAY()-F31, 0))</f>
+        <f>IF(I31="完了","", IF(OR(F31="", F31=0), "", IF(TODAY()&gt;F31, TODAY()-F31, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <f>IF(I32="完了",0, IF(TODAY()&gt;F32, TODAY()-F32, 0))</f>
+        <f>IF(I32="完了","", IF(OR(F32="", F32=0), "", IF(TODAY()&gt;F32, TODAY()-F32, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <f>IF(I33="完了",0, IF(TODAY()&gt;F33, TODAY()-F33, 0))</f>
+        <f>IF(I33="完了","", IF(OR(F33="", F33=0), "", IF(TODAY()&gt;F33, TODAY()-F33, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <f>IF(I34="完了",0, IF(TODAY()&gt;F34, TODAY()-F34, 0))</f>
+        <f>IF(I34="完了","", IF(OR(F34="", F34=0), "", IF(TODAY()&gt;F34, TODAY()-F34, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f>IF(I35="完了",0, IF(TODAY()&gt;F35, TODAY()-F35, 0))</f>
+        <f>IF(I35="完了","", IF(OR(F35="", F35=0), "", IF(TODAY()&gt;F35, TODAY()-F35, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f>IF(I36="完了",0, IF(TODAY()&gt;F36, TODAY()-F36, 0))</f>
+        <f>IF(I36="完了","", IF(OR(F36="", F36=0), "", IF(TODAY()&gt;F36, TODAY()-F36, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <f>IF(I37="完了",0, IF(TODAY()&gt;F37, TODAY()-F37, 0))</f>
+        <f>IF(I37="完了","", IF(OR(F37="", F37=0), "", IF(TODAY()&gt;F37, TODAY()-F37, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <f>IF(I38="完了",0, IF(TODAY()&gt;F38, TODAY()-F38, 0))</f>
+        <f>IF(I38="完了","", IF(OR(F38="", F38=0), "", IF(TODAY()&gt;F38, TODAY()-F38, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f>IF(I39="完了",0, IF(TODAY()&gt;F39, TODAY()-F39, 0))</f>
+        <f>IF(I39="完了","", IF(OR(F39="", F39=0), "", IF(TODAY()&gt;F39, TODAY()-F39, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f>IF(I40="完了",0, IF(TODAY()&gt;F40, TODAY()-F40, 0))</f>
+        <f>IF(I40="完了","", IF(OR(F40="", F40=0), "", IF(TODAY()&gt;F40, TODAY()-F40, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f>IF(I41="完了",0, IF(TODAY()&gt;F41, TODAY()-F41, 0))</f>
+        <f>IF(I41="完了","", IF(OR(F41="", F41=0), "", IF(TODAY()&gt;F41, TODAY()-F41, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <f>IF(I42="完了",0, IF(TODAY()&gt;F42, TODAY()-F42, 0))</f>
+        <f>IF(I42="完了","", IF(OR(F42="", F42=0), "", IF(TODAY()&gt;F42, TODAY()-F42, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <f>IF(I43="完了",0, IF(TODAY()&gt;F43, TODAY()-F43, 0))</f>
+        <f>IF(I43="完了","", IF(OR(F43="", F43=0), "", IF(TODAY()&gt;F43, TODAY()-F43, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <f>IF(I44="完了",0, IF(TODAY()&gt;F44, TODAY()-F44, 0))</f>
+        <f>IF(I44="完了","", IF(OR(F44="", F44=0), "", IF(TODAY()&gt;F44, TODAY()-F44, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <f>IF(I45="完了",0, IF(TODAY()&gt;F45, TODAY()-F45, 0))</f>
+        <f>IF(I45="完了","", IF(OR(F45="", F45=0), "", IF(TODAY()&gt;F45, TODAY()-F45, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <f>IF(I46="完了",0, IF(TODAY()&gt;F46, TODAY()-F46, 0))</f>
+        <f>IF(I46="完了","", IF(OR(F46="", F46=0), "", IF(TODAY()&gt;F46, TODAY()-F46, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <f>IF(I47="完了",0, IF(TODAY()&gt;F47, TODAY()-F47, 0))</f>
+        <f>IF(I47="完了","", IF(OR(F47="", F47=0), "", IF(TODAY()&gt;F47, TODAY()-F47, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <f>IF(I48="完了",0, IF(TODAY()&gt;F48, TODAY()-F48, 0))</f>
+        <f>IF(I48="完了","", IF(OR(F48="", F48=0), "", IF(TODAY()&gt;F48, TODAY()-F48, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <f>IF(I49="完了",0, IF(TODAY()&gt;F49, TODAY()-F49, 0))</f>
+        <f>IF(I49="完了","", IF(OR(F49="", F49=0), "", IF(TODAY()&gt;F49, TODAY()-F49, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <f>IF(I50="完了",0, IF(TODAY()&gt;F50, TODAY()-F50, 0))</f>
+        <f>IF(I50="完了","", IF(OR(F50="", F50=0), "", IF(TODAY()&gt;F50, TODAY()-F50, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f>IF(I51="完了",0, IF(TODAY()&gt;F51, TODAY()-F51, 0))</f>
+        <f>IF(I51="完了","", IF(OR(F51="", F51=0), "", IF(TODAY()&gt;F51, TODAY()-F51, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <f>IF(I52="完了",0, IF(TODAY()&gt;F52, TODAY()-F52, 0))</f>
+        <f>IF(I52="完了","", IF(OR(F52="", F52=0), "", IF(TODAY()&gt;F52, TODAY()-F52, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <f>IF(I53="完了",0, IF(TODAY()&gt;F53, TODAY()-F53, 0))</f>
+        <f>IF(I53="完了","", IF(OR(F53="", F53=0), "", IF(TODAY()&gt;F53, TODAY()-F53, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <f>IF(I54="完了",0, IF(TODAY()&gt;F54, TODAY()-F54, 0))</f>
+        <f>IF(I54="完了","", IF(OR(F54="", F54=0), "", IF(TODAY()&gt;F54, TODAY()-F54, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <f>IF(I55="完了",0, IF(TODAY()&gt;F55, TODAY()-F55, 0))</f>
+        <f>IF(I55="完了","", IF(OR(F55="", F55=0), "", IF(TODAY()&gt;F55, TODAY()-F55, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <f>IF(I56="完了",0, IF(TODAY()&gt;F56, TODAY()-F56, 0))</f>
+        <f>IF(I56="完了","", IF(OR(F56="", F56=0), "", IF(TODAY()&gt;F56, TODAY()-F56, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <f>IF(I57="完了",0, IF(TODAY()&gt;F57, TODAY()-F57, 0))</f>
+        <f>IF(I57="完了","", IF(OR(F57="", F57=0), "", IF(TODAY()&gt;F57, TODAY()-F57, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <f>IF(I58="完了",0, IF(TODAY()&gt;F58, TODAY()-F58, 0))</f>
+        <f>IF(I58="完了","", IF(OR(F58="", F58=0), "", IF(TODAY()&gt;F58, TODAY()-F58, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <f>IF(I59="完了",0, IF(TODAY()&gt;F59, TODAY()-F59, 0))</f>
+        <f>IF(I59="完了","", IF(OR(F59="", F59=0), "", IF(TODAY()&gt;F59, TODAY()-F59, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <f>IF(I60="完了",0, IF(TODAY()&gt;F60, TODAY()-F60, 0))</f>
+        <f>IF(I60="完了","", IF(OR(F60="", F60=0), "", IF(TODAY()&gt;F60, TODAY()-F60, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <f>IF(I61="完了",0, IF(TODAY()&gt;F61, TODAY()-F61, 0))</f>
+        <f>IF(I61="完了","", IF(OR(F61="", F61=0), "", IF(TODAY()&gt;F61, TODAY()-F61, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <f>IF(I62="完了",0, IF(TODAY()&gt;F62, TODAY()-F62, 0))</f>
+        <f>IF(I62="完了","", IF(OR(F62="", F62=0), "", IF(TODAY()&gt;F62, TODAY()-F62, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f>IF(I63="完了",0, IF(TODAY()&gt;F63, TODAY()-F63, 0))</f>
+        <f>IF(I63="完了","", IF(OR(F63="", F63=0), "", IF(TODAY()&gt;F63, TODAY()-F63, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f>IF(I64="完了",0, IF(TODAY()&gt;F64, TODAY()-F64, 0))</f>
+        <f>IF(I64="完了","", IF(OR(F64="", F64=0), "", IF(TODAY()&gt;F64, TODAY()-F64, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <f>IF(I65="完了",0, IF(TODAY()&gt;F65, TODAY()-F65, 0))</f>
+        <f>IF(I65="完了","", IF(OR(F65="", F65=0), "", IF(TODAY()&gt;F65, TODAY()-F65, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f>IF(I66="完了",0, IF(TODAY()&gt;F66, TODAY()-F66, 0))</f>
+        <f>IF(I66="完了","", IF(OR(F66="", F66=0), "", IF(TODAY()&gt;F66, TODAY()-F66, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <f>IF(I67="完了",0, IF(TODAY()&gt;F67, TODAY()-F67, 0))</f>
+        <f>IF(I67="完了","", IF(OR(F67="", F67=0), "", IF(TODAY()&gt;F67, TODAY()-F67, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <f>IF(I68="完了",0, IF(TODAY()&gt;F68, TODAY()-F68, 0))</f>
+        <f>IF(I68="完了","", IF(OR(F68="", F68=0), "", IF(TODAY()&gt;F68, TODAY()-F68, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <f>IF(I69="完了",0, IF(TODAY()&gt;F69, TODAY()-F69, 0))</f>
+        <f>IF(I69="完了","", IF(OR(F69="", F69=0), "", IF(TODAY()&gt;F69, TODAY()-F69, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <f>IF(I70="完了",0, IF(TODAY()&gt;F70, TODAY()-F70, 0))</f>
+        <f>IF(I70="完了","", IF(OR(F70="", F70=0), "", IF(TODAY()&gt;F70, TODAY()-F70, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f>IF(I71="完了",0, IF(TODAY()&gt;F71, TODAY()-F71, 0))</f>
+        <f>IF(I71="完了","", IF(OR(F71="", F71=0), "", IF(TODAY()&gt;F71, TODAY()-F71, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <f>IF(I72="完了",0, IF(TODAY()&gt;F72, TODAY()-F72, 0))</f>
+        <f>IF(I72="完了","", IF(OR(F72="", F72=0), "", IF(TODAY()&gt;F72, TODAY()-F72, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <f>IF(I73="完了",0, IF(TODAY()&gt;F73, TODAY()-F73, 0))</f>
+        <f>IF(I73="完了","", IF(OR(F73="", F73=0), "", IF(TODAY()&gt;F73, TODAY()-F73, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <f>IF(I74="完了",0, IF(TODAY()&gt;F74, TODAY()-F74, 0))</f>
+        <f>IF(I74="完了","", IF(OR(F74="", F74=0), "", IF(TODAY()&gt;F74, TODAY()-F74, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <f>IF(I75="完了",0, IF(TODAY()&gt;F75, TODAY()-F75, 0))</f>
+        <f>IF(I75="完了","", IF(OR(F75="", F75=0), "", IF(TODAY()&gt;F75, TODAY()-F75, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <f>IF(I76="完了",0, IF(TODAY()&gt;F76, TODAY()-F76, 0))</f>
+        <f>IF(I76="完了","", IF(OR(F76="", F76=0), "", IF(TODAY()&gt;F76, TODAY()-F76, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <f>IF(I77="完了",0, IF(TODAY()&gt;F77, TODAY()-F77, 0))</f>
+        <f>IF(I77="完了","", IF(OR(F77="", F77=0), "", IF(TODAY()&gt;F77, TODAY()-F77, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <f>IF(I78="完了",0, IF(TODAY()&gt;F78, TODAY()-F78, 0))</f>
+        <f>IF(I78="完了","", IF(OR(F78="", F78=0), "", IF(TODAY()&gt;F78, TODAY()-F78, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <f>IF(I79="完了",0, IF(TODAY()&gt;F79, TODAY()-F79, 0))</f>
+        <f>IF(I79="完了","", IF(OR(F79="", F79=0), "", IF(TODAY()&gt;F79, TODAY()-F79, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <f>IF(I80="完了",0, IF(TODAY()&gt;F80, TODAY()-F80, 0))</f>
+        <f>IF(I80="完了","", IF(OR(F80="", F80=0), "", IF(TODAY()&gt;F80, TODAY()-F80, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <f>IF(I81="完了",0, IF(TODAY()&gt;F81, TODAY()-F81, 0))</f>
+        <f>IF(I81="完了","", IF(OR(F81="", F81=0), "", IF(TODAY()&gt;F81, TODAY()-F81, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <f>IF(I82="完了",0, IF(TODAY()&gt;F82, TODAY()-F82, 0))</f>
+        <f>IF(I82="完了","", IF(OR(F82="", F82=0), "", IF(TODAY()&gt;F82, TODAY()-F82, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <f>IF(I83="完了",0, IF(TODAY()&gt;F83, TODAY()-F83, 0))</f>
+        <f>IF(I83="完了","", IF(OR(F83="", F83=0), "", IF(TODAY()&gt;F83, TODAY()-F83, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <f>IF(I84="完了",0, IF(TODAY()&gt;F84, TODAY()-F84, 0))</f>
+        <f>IF(I84="完了","", IF(OR(F84="", F84=0), "", IF(TODAY()&gt;F84, TODAY()-F84, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <f>IF(I85="完了",0, IF(TODAY()&gt;F85, TODAY()-F85, 0))</f>
+        <f>IF(I85="完了","", IF(OR(F85="", F85=0), "", IF(TODAY()&gt;F85, TODAY()-F85, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <f>IF(I86="完了",0, IF(TODAY()&gt;F86, TODAY()-F86, 0))</f>
+        <f>IF(I86="完了","", IF(OR(F86="", F86=0), "", IF(TODAY()&gt;F86, TODAY()-F86, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <f>IF(I87="完了",0, IF(TODAY()&gt;F87, TODAY()-F87, 0))</f>
+        <f>IF(I87="完了","", IF(OR(F87="", F87=0), "", IF(TODAY()&gt;F87, TODAY()-F87, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <f>IF(I88="完了",0, IF(TODAY()&gt;F88, TODAY()-F88, 0))</f>
+        <f>IF(I88="完了","", IF(OR(F88="", F88=0), "", IF(TODAY()&gt;F88, TODAY()-F88, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <f>IF(I89="完了",0, IF(TODAY()&gt;F89, TODAY()-F89, 0))</f>
+        <f>IF(I89="完了","", IF(OR(F89="", F89=0), "", IF(TODAY()&gt;F89, TODAY()-F89, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <f>IF(I90="完了",0, IF(TODAY()&gt;F90, TODAY()-F90, 0))</f>
+        <f>IF(I90="完了","", IF(OR(F90="", F90=0), "", IF(TODAY()&gt;F90, TODAY()-F90, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <f>IF(I91="完了",0, IF(TODAY()&gt;F91, TODAY()-F91, 0))</f>
+        <f>IF(I91="完了","", IF(OR(F91="", F91=0), "", IF(TODAY()&gt;F91, TODAY()-F91, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <f>IF(I92="完了",0, IF(TODAY()&gt;F92, TODAY()-F92, 0))</f>
+        <f>IF(I92="完了","", IF(OR(F92="", F92=0), "", IF(TODAY()&gt;F92, TODAY()-F92, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <f>IF(I93="完了",0, IF(TODAY()&gt;F93, TODAY()-F93, 0))</f>
+        <f>IF(I93="完了","", IF(OR(F93="", F93=0), "", IF(TODAY()&gt;F93, TODAY()-F93, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <f>IF(I94="完了",0, IF(TODAY()&gt;F94, TODAY()-F94, 0))</f>
+        <f>IF(I94="完了","", IF(OR(F94="", F94=0), "", IF(TODAY()&gt;F94, TODAY()-F94, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <f>IF(I95="完了",0, IF(TODAY()&gt;F95, TODAY()-F95, 0))</f>
+        <f>IF(I95="完了","", IF(OR(F95="", F95=0), "", IF(TODAY()&gt;F95, TODAY()-F95, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <f>IF(I96="完了",0, IF(TODAY()&gt;F96, TODAY()-F96, 0))</f>
+        <f>IF(I96="完了","", IF(OR(F96="", F96=0), "", IF(TODAY()&gt;F96, TODAY()-F96, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <f>IF(I97="完了",0, IF(TODAY()&gt;F97, TODAY()-F97, 0))</f>
+        <f>IF(I97="完了","", IF(OR(F97="", F97=0), "", IF(TODAY()&gt;F97, TODAY()-F97, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <f>IF(I98="完了",0, IF(TODAY()&gt;F98, TODAY()-F98, 0))</f>
+        <f>IF(I98="完了","", IF(OR(F98="", F98=0), "", IF(TODAY()&gt;F98, TODAY()-F98, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <f>IF(I99="完了",0, IF(TODAY()&gt;F99, TODAY()-F99, 0))</f>
+        <f>IF(I99="完了","", IF(OR(F99="", F99=0), "", IF(TODAY()&gt;F99, TODAY()-F99, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <f>IF(I100="完了",0, IF(TODAY()&gt;F100, TODAY()-F100, 0))</f>
+        <f>IF(I100="完了","", IF(OR(F100="", F100=0), "", IF(TODAY()&gt;F100, TODAY()-F100, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <f>IF(I101="完了",0, IF(TODAY()&gt;F101, TODAY()-F101, 0))</f>
+        <f>IF(I101="完了","", IF(OR(F101="", F101=0), "", IF(TODAY()&gt;F101, TODAY()-F101, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <f>IF(I102="完了",0, IF(TODAY()&gt;F102, TODAY()-F102, 0))</f>
+        <f>IF(I102="完了","", IF(OR(F102="", F102=0), "", IF(TODAY()&gt;F102, TODAY()-F102, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <f>IF(I103="完了",0, IF(TODAY()&gt;F103, TODAY()-F103, 0))</f>
+        <f>IF(I103="完了","", IF(OR(F103="", F103=0), "", IF(TODAY()&gt;F103, TODAY()-F103, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <f>IF(I104="完了",0, IF(TODAY()&gt;F104, TODAY()-F104, 0))</f>
+        <f>IF(I104="完了","", IF(OR(F104="", F104=0), "", IF(TODAY()&gt;F104, TODAY()-F104, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <f>IF(I105="完了",0, IF(TODAY()&gt;F105, TODAY()-F105, 0))</f>
+        <f>IF(I105="完了","", IF(OR(F105="", F105=0), "", IF(TODAY()&gt;F105, TODAY()-F105, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <f>IF(I106="完了",0, IF(TODAY()&gt;F106, TODAY()-F106, 0))</f>
+        <f>IF(I106="完了","", IF(OR(F106="", F106=0), "", IF(TODAY()&gt;F106, TODAY()-F106, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <f>IF(I107="完了",0, IF(TODAY()&gt;F107, TODAY()-F107, 0))</f>
+        <f>IF(I107="完了","", IF(OR(F107="", F107=0), "", IF(TODAY()&gt;F107, TODAY()-F107, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <f>IF(I108="完了",0, IF(TODAY()&gt;F108, TODAY()-F108, 0))</f>
+        <f>IF(I108="完了","", IF(OR(F108="", F108=0), "", IF(TODAY()&gt;F108, TODAY()-F108, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <f>IF(I109="完了",0, IF(TODAY()&gt;F109, TODAY()-F109, 0))</f>
+        <f>IF(I109="完了","", IF(OR(F109="", F109=0), "", IF(TODAY()&gt;F109, TODAY()-F109, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <f>IF(I110="完了",0, IF(TODAY()&gt;F110, TODAY()-F110, 0))</f>
+        <f>IF(I110="完了","", IF(OR(F110="", F110=0), "", IF(TODAY()&gt;F110, TODAY()-F110, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <f>IF(I111="完了",0, IF(TODAY()&gt;F111, TODAY()-F111, 0))</f>
+        <f>IF(I111="完了","", IF(OR(F111="", F111=0), "", IF(TODAY()&gt;F111, TODAY()-F111, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <f>IF(I112="完了",0, IF(TODAY()&gt;F112, TODAY()-F112, 0))</f>
+        <f>IF(I112="完了","", IF(OR(F112="", F112=0), "", IF(TODAY()&gt;F112, TODAY()-F112, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <f>IF(I113="完了",0, IF(TODAY()&gt;F113, TODAY()-F113, 0))</f>
+        <f>IF(I113="完了","", IF(OR(F113="", F113=0), "", IF(TODAY()&gt;F113, TODAY()-F113, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <f>IF(I114="完了",0, IF(TODAY()&gt;F114, TODAY()-F114, 0))</f>
+        <f>IF(I114="完了","", IF(OR(F114="", F114=0), "", IF(TODAY()&gt;F114, TODAY()-F114, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <f>IF(I115="完了",0, IF(TODAY()&gt;F115, TODAY()-F115, 0))</f>
+        <f>IF(I115="完了","", IF(OR(F115="", F115=0), "", IF(TODAY()&gt;F115, TODAY()-F115, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <f>IF(I116="完了",0, IF(TODAY()&gt;F116, TODAY()-F116, 0))</f>
+        <f>IF(I116="完了","", IF(OR(F116="", F116=0), "", IF(TODAY()&gt;F116, TODAY()-F116, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <f>IF(I117="完了",0, IF(TODAY()&gt;F117, TODAY()-F117, 0))</f>
+        <f>IF(I117="完了","", IF(OR(F117="", F117=0), "", IF(TODAY()&gt;F117, TODAY()-F117, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <f>IF(I118="完了",0, IF(TODAY()&gt;F118, TODAY()-F118, 0))</f>
+        <f>IF(I118="完了","", IF(OR(F118="", F118=0), "", IF(TODAY()&gt;F118, TODAY()-F118, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <f>IF(I119="完了",0, IF(TODAY()&gt;F119, TODAY()-F119, 0))</f>
+        <f>IF(I119="完了","", IF(OR(F119="", F119=0), "", IF(TODAY()&gt;F119, TODAY()-F119, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <f>IF(I120="完了",0, IF(TODAY()&gt;F120, TODAY()-F120, 0))</f>
+        <f>IF(I120="完了","", IF(OR(F120="", F120=0), "", IF(TODAY()&gt;F120, TODAY()-F120, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <f>IF(I121="完了",0, IF(TODAY()&gt;F121, TODAY()-F121, 0))</f>
+        <f>IF(I121="完了","", IF(OR(F121="", F121=0), "", IF(TODAY()&gt;F121, TODAY()-F121, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <f>IF(I122="完了",0, IF(TODAY()&gt;F122, TODAY()-F122, 0))</f>
+        <f>IF(I122="完了","", IF(OR(F122="", F122=0), "", IF(TODAY()&gt;F122, TODAY()-F122, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <f>IF(I123="完了",0, IF(TODAY()&gt;F123, TODAY()-F123, 0))</f>
+        <f>IF(I123="完了","", IF(OR(F123="", F123=0), "", IF(TODAY()&gt;F123, TODAY()-F123, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <f>IF(I124="完了",0, IF(TODAY()&gt;F124, TODAY()-F124, 0))</f>
+        <f>IF(I124="完了","", IF(OR(F124="", F124=0), "", IF(TODAY()&gt;F124, TODAY()-F124, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <f>IF(I125="完了",0, IF(TODAY()&gt;F125, TODAY()-F125, 0))</f>
+        <f>IF(I125="完了","", IF(OR(F125="", F125=0), "", IF(TODAY()&gt;F125, TODAY()-F125, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <f>IF(I126="完了",0, IF(TODAY()&gt;F126, TODAY()-F126, 0))</f>
+        <f>IF(I126="完了","", IF(OR(F126="", F126=0), "", IF(TODAY()&gt;F126, TODAY()-F126, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <f>IF(I127="完了",0, IF(TODAY()&gt;F127, TODAY()-F127, 0))</f>
+        <f>IF(I127="完了","", IF(OR(F127="", F127=0), "", IF(TODAY()&gt;F127, TODAY()-F127, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <f>IF(I128="完了",0, IF(TODAY()&gt;F128, TODAY()-F128, 0))</f>
+        <f>IF(I128="完了","", IF(OR(F128="", F128=0), "", IF(TODAY()&gt;F128, TODAY()-F128, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <f>IF(I129="完了",0, IF(TODAY()&gt;F129, TODAY()-F129, 0))</f>
+        <f>IF(I129="完了","", IF(OR(F129="", F129=0), "", IF(TODAY()&gt;F129, TODAY()-F129, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <f>IF(I130="完了",0, IF(TODAY()&gt;F130, TODAY()-F130, 0))</f>
+        <f>IF(I130="完了","", IF(OR(F130="", F130=0), "", IF(TODAY()&gt;F130, TODAY()-F130, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <f>IF(I131="完了",0, IF(TODAY()&gt;F131, TODAY()-F131, 0))</f>
+        <f>IF(I131="完了","", IF(OR(F131="", F131=0), "", IF(TODAY()&gt;F131, TODAY()-F131, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <f>IF(I132="完了",0, IF(TODAY()&gt;F132, TODAY()-F132, 0))</f>
+        <f>IF(I132="完了","", IF(OR(F132="", F132=0), "", IF(TODAY()&gt;F132, TODAY()-F132, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <f>IF(I133="完了",0, IF(TODAY()&gt;F133, TODAY()-F133, 0))</f>
+        <f>IF(I133="完了","", IF(OR(F133="", F133=0), "", IF(TODAY()&gt;F133, TODAY()-F133, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="N134">
-        <f>IF(I134="完了",0, IF(TODAY()&gt;F134, TODAY()-F134, 0))</f>
+        <f>IF(I134="完了","", IF(OR(F134="", F134=0), "", IF(TODAY()&gt;F134, TODAY()-F134, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <f>IF(I135="完了",0, IF(TODAY()&gt;F135, TODAY()-F135, 0))</f>
+        <f>IF(I135="完了","", IF(OR(F135="", F135=0), "", IF(TODAY()&gt;F135, TODAY()-F135, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <f>IF(I136="完了",0, IF(TODAY()&gt;F136, TODAY()-F136, 0))</f>
+        <f>IF(I136="完了","", IF(OR(F136="", F136=0), "", IF(TODAY()&gt;F136, TODAY()-F136, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="N137">
-        <f>IF(I137="完了",0, IF(TODAY()&gt;F137, TODAY()-F137, 0))</f>
+        <f>IF(I137="完了","", IF(OR(F137="", F137=0), "", IF(TODAY()&gt;F137, TODAY()-F137, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="N138">
-        <f>IF(I138="完了",0, IF(TODAY()&gt;F138, TODAY()-F138, 0))</f>
+        <f>IF(I138="完了","", IF(OR(F138="", F138=0), "", IF(TODAY()&gt;F138, TODAY()-F138, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <f>IF(I139="完了",0, IF(TODAY()&gt;F139, TODAY()-F139, 0))</f>
+        <f>IF(I139="完了","", IF(OR(F139="", F139=0), "", IF(TODAY()&gt;F139, TODAY()-F139, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="N140">
-        <f>IF(I140="完了",0, IF(TODAY()&gt;F140, TODAY()-F140, 0))</f>
+        <f>IF(I140="完了","", IF(OR(F140="", F140=0), "", IF(TODAY()&gt;F140, TODAY()-F140, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <f>IF(I141="完了",0, IF(TODAY()&gt;F141, TODAY()-F141, 0))</f>
+        <f>IF(I141="完了","", IF(OR(F141="", F141=0), "", IF(TODAY()&gt;F141, TODAY()-F141, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <f>IF(I142="完了",0, IF(TODAY()&gt;F142, TODAY()-F142, 0))</f>
+        <f>IF(I142="完了","", IF(OR(F142="", F142=0), "", IF(TODAY()&gt;F142, TODAY()-F142, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <f>IF(I143="完了",0, IF(TODAY()&gt;F143, TODAY()-F143, 0))</f>
+        <f>IF(I143="完了","", IF(OR(F143="", F143=0), "", IF(TODAY()&gt;F143, TODAY()-F143, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <f>IF(I144="完了",0, IF(TODAY()&gt;F144, TODAY()-F144, 0))</f>
+        <f>IF(I144="完了","", IF(OR(F144="", F144=0), "", IF(TODAY()&gt;F144, TODAY()-F144, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <f>IF(I145="完了",0, IF(TODAY()&gt;F145, TODAY()-F145, 0))</f>
+        <f>IF(I145="完了","", IF(OR(F145="", F145=0), "", IF(TODAY()&gt;F145, TODAY()-F145, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <f>IF(I146="完了",0, IF(TODAY()&gt;F146, TODAY()-F146, 0))</f>
+        <f>IF(I146="完了","", IF(OR(F146="", F146=0), "", IF(TODAY()&gt;F146, TODAY()-F146, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <f>IF(I147="完了",0, IF(TODAY()&gt;F147, TODAY()-F147, 0))</f>
+        <f>IF(I147="完了","", IF(OR(F147="", F147=0), "", IF(TODAY()&gt;F147, TODAY()-F147, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <f>IF(I148="完了",0, IF(TODAY()&gt;F148, TODAY()-F148, 0))</f>
+        <f>IF(I148="完了","", IF(OR(F148="", F148=0), "", IF(TODAY()&gt;F148, TODAY()-F148, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <f>IF(I149="完了",0, IF(TODAY()&gt;F149, TODAY()-F149, 0))</f>
+        <f>IF(I149="完了","", IF(OR(F149="", F149=0), "", IF(TODAY()&gt;F149, TODAY()-F149, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <f>IF(I150="完了",0, IF(TODAY()&gt;F150, TODAY()-F150, 0))</f>
+        <f>IF(I150="完了","", IF(OR(F150="", F150=0), "", IF(TODAY()&gt;F150, TODAY()-F150, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <f>IF(I151="完了",0, IF(TODAY()&gt;F151, TODAY()-F151, 0))</f>
+        <f>IF(I151="完了","", IF(OR(F151="", F151=0), "", IF(TODAY()&gt;F151, TODAY()-F151, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <f>IF(I152="完了",0, IF(TODAY()&gt;F152, TODAY()-F152, 0))</f>
+        <f>IF(I152="完了","", IF(OR(F152="", F152=0), "", IF(TODAY()&gt;F152, TODAY()-F152, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <f>IF(I153="完了",0, IF(TODAY()&gt;F153, TODAY()-F153, 0))</f>
+        <f>IF(I153="完了","", IF(OR(F153="", F153=0), "", IF(TODAY()&gt;F153, TODAY()-F153, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="N154">
-        <f>IF(I154="完了",0, IF(TODAY()&gt;F154, TODAY()-F154, 0))</f>
+        <f>IF(I154="完了","", IF(OR(F154="", F154=0), "", IF(TODAY()&gt;F154, TODAY()-F154, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <f>IF(I155="完了",0, IF(TODAY()&gt;F155, TODAY()-F155, 0))</f>
+        <f>IF(I155="完了","", IF(OR(F155="", F155=0), "", IF(TODAY()&gt;F155, TODAY()-F155, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="N156">
-        <f>IF(I156="完了",0, IF(TODAY()&gt;F156, TODAY()-F156, 0))</f>
+        <f>IF(I156="完了","", IF(OR(F156="", F156=0), "", IF(TODAY()&gt;F156, TODAY()-F156, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <f>IF(I157="完了",0, IF(TODAY()&gt;F157, TODAY()-F157, 0))</f>
+        <f>IF(I157="完了","", IF(OR(F157="", F157=0), "", IF(TODAY()&gt;F157, TODAY()-F157, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <f>IF(I158="完了",0, IF(TODAY()&gt;F158, TODAY()-F158, 0))</f>
+        <f>IF(I158="完了","", IF(OR(F158="", F158=0), "", IF(TODAY()&gt;F158, TODAY()-F158, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <f>IF(I159="完了",0, IF(TODAY()&gt;F159, TODAY()-F159, 0))</f>
+        <f>IF(I159="完了","", IF(OR(F159="", F159=0), "", IF(TODAY()&gt;F159, TODAY()-F159, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="N160">
-        <f>IF(I160="完了",0, IF(TODAY()&gt;F160, TODAY()-F160, 0))</f>
+        <f>IF(I160="完了","", IF(OR(F160="", F160=0), "", IF(TODAY()&gt;F160, TODAY()-F160, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="N161">
-        <f>IF(I161="完了",0, IF(TODAY()&gt;F161, TODAY()-F161, 0))</f>
+        <f>IF(I161="完了","", IF(OR(F161="", F161=0), "", IF(TODAY()&gt;F161, TODAY()-F161, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <f>IF(I162="完了",0, IF(TODAY()&gt;F162, TODAY()-F162, 0))</f>
+        <f>IF(I162="完了","", IF(OR(F162="", F162=0), "", IF(TODAY()&gt;F162, TODAY()-F162, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <f>IF(I163="完了",0, IF(TODAY()&gt;F163, TODAY()-F163, 0))</f>
+        <f>IF(I163="完了","", IF(OR(F163="", F163=0), "", IF(TODAY()&gt;F163, TODAY()-F163, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="N164">
-        <f>IF(I164="完了",0, IF(TODAY()&gt;F164, TODAY()-F164, 0))</f>
+        <f>IF(I164="完了","", IF(OR(F164="", F164=0), "", IF(TODAY()&gt;F164, TODAY()-F164, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <f>IF(I165="完了",0, IF(TODAY()&gt;F165, TODAY()-F165, 0))</f>
+        <f>IF(I165="完了","", IF(OR(F165="", F165=0), "", IF(TODAY()&gt;F165, TODAY()-F165, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <f>IF(I166="完了",0, IF(TODAY()&gt;F166, TODAY()-F166, 0))</f>
+        <f>IF(I166="完了","", IF(OR(F166="", F166=0), "", IF(TODAY()&gt;F166, TODAY()-F166, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <f>IF(I167="完了",0, IF(TODAY()&gt;F167, TODAY()-F167, 0))</f>
+        <f>IF(I167="完了","", IF(OR(F167="", F167=0), "", IF(TODAY()&gt;F167, TODAY()-F167, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="N168">
-        <f>IF(I168="完了",0, IF(TODAY()&gt;F168, TODAY()-F168, 0))</f>
+        <f>IF(I168="完了","", IF(OR(F168="", F168=0), "", IF(TODAY()&gt;F168, TODAY()-F168, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="N169">
-        <f>IF(I169="完了",0, IF(TODAY()&gt;F169, TODAY()-F169, 0))</f>
+        <f>IF(I169="完了","", IF(OR(F169="", F169=0), "", IF(TODAY()&gt;F169, TODAY()-F169, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <f>IF(I170="完了",0, IF(TODAY()&gt;F170, TODAY()-F170, 0))</f>
+        <f>IF(I170="完了","", IF(OR(F170="", F170=0), "", IF(TODAY()&gt;F170, TODAY()-F170, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="N171">
-        <f>IF(I171="完了",0, IF(TODAY()&gt;F171, TODAY()-F171, 0))</f>
+        <f>IF(I171="完了","", IF(OR(F171="", F171=0), "", IF(TODAY()&gt;F171, TODAY()-F171, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="N172">
-        <f>IF(I172="完了",0, IF(TODAY()&gt;F172, TODAY()-F172, 0))</f>
+        <f>IF(I172="完了","", IF(OR(F172="", F172=0), "", IF(TODAY()&gt;F172, TODAY()-F172, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="N173">
-        <f>IF(I173="完了",0, IF(TODAY()&gt;F173, TODAY()-F173, 0))</f>
+        <f>IF(I173="完了","", IF(OR(F173="", F173=0), "", IF(TODAY()&gt;F173, TODAY()-F173, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="N174">
-        <f>IF(I174="完了",0, IF(TODAY()&gt;F174, TODAY()-F174, 0))</f>
+        <f>IF(I174="完了","", IF(OR(F174="", F174=0), "", IF(TODAY()&gt;F174, TODAY()-F174, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N175">
-        <f>IF(I175="完了",0, IF(TODAY()&gt;F175, TODAY()-F175, 0))</f>
+        <f>IF(I175="完了","", IF(OR(F175="", F175=0), "", IF(TODAY()&gt;F175, TODAY()-F175, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="N176">
-        <f>IF(I176="完了",0, IF(TODAY()&gt;F176, TODAY()-F176, 0))</f>
+        <f>IF(I176="完了","", IF(OR(F176="", F176=0), "", IF(TODAY()&gt;F176, TODAY()-F176, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="N177">
-        <f>IF(I177="完了",0, IF(TODAY()&gt;F177, TODAY()-F177, 0))</f>
+        <f>IF(I177="完了","", IF(OR(F177="", F177=0), "", IF(TODAY()&gt;F177, TODAY()-F177, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="N178">
-        <f>IF(I178="完了",0, IF(TODAY()&gt;F178, TODAY()-F178, 0))</f>
+        <f>IF(I178="完了","", IF(OR(F178="", F178=0), "", IF(TODAY()&gt;F178, TODAY()-F178, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="N179">
-        <f>IF(I179="完了",0, IF(TODAY()&gt;F179, TODAY()-F179, 0))</f>
+        <f>IF(I179="完了","", IF(OR(F179="", F179=0), "", IF(TODAY()&gt;F179, TODAY()-F179, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="N180">
-        <f>IF(I180="完了",0, IF(TODAY()&gt;F180, TODAY()-F180, 0))</f>
+        <f>IF(I180="完了","", IF(OR(F180="", F180=0), "", IF(TODAY()&gt;F180, TODAY()-F180, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="N181">
-        <f>IF(I181="完了",0, IF(TODAY()&gt;F181, TODAY()-F181, 0))</f>
+        <f>IF(I181="完了","", IF(OR(F181="", F181=0), "", IF(TODAY()&gt;F181, TODAY()-F181, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="N182">
-        <f>IF(I182="完了",0, IF(TODAY()&gt;F182, TODAY()-F182, 0))</f>
+        <f>IF(I182="完了","", IF(OR(F182="", F182=0), "", IF(TODAY()&gt;F182, TODAY()-F182, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="N183">
-        <f>IF(I183="完了",0, IF(TODAY()&gt;F183, TODAY()-F183, 0))</f>
+        <f>IF(I183="完了","", IF(OR(F183="", F183=0), "", IF(TODAY()&gt;F183, TODAY()-F183, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="N184">
-        <f>IF(I184="完了",0, IF(TODAY()&gt;F184, TODAY()-F184, 0))</f>
+        <f>IF(I184="完了","", IF(OR(F184="", F184=0), "", IF(TODAY()&gt;F184, TODAY()-F184, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="N185">
-        <f>IF(I185="完了",0, IF(TODAY()&gt;F185, TODAY()-F185, 0))</f>
+        <f>IF(I185="完了","", IF(OR(F185="", F185=0), "", IF(TODAY()&gt;F185, TODAY()-F185, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="N186">
-        <f>IF(I186="完了",0, IF(TODAY()&gt;F186, TODAY()-F186, 0))</f>
+        <f>IF(I186="完了","", IF(OR(F186="", F186=0), "", IF(TODAY()&gt;F186, TODAY()-F186, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="N187">
-        <f>IF(I187="完了",0, IF(TODAY()&gt;F187, TODAY()-F187, 0))</f>
+        <f>IF(I187="完了","", IF(OR(F187="", F187=0), "", IF(TODAY()&gt;F187, TODAY()-F187, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="N188">
-        <f>IF(I188="完了",0, IF(TODAY()&gt;F188, TODAY()-F188, 0))</f>
+        <f>IF(I188="完了","", IF(OR(F188="", F188=0), "", IF(TODAY()&gt;F188, TODAY()-F188, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="N189">
-        <f>IF(I189="完了",0, IF(TODAY()&gt;F189, TODAY()-F189, 0))</f>
+        <f>IF(I189="完了","", IF(OR(F189="", F189=0), "", IF(TODAY()&gt;F189, TODAY()-F189, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="N190">
-        <f>IF(I190="完了",0, IF(TODAY()&gt;F190, TODAY()-F190, 0))</f>
+        <f>IF(I190="完了","", IF(OR(F190="", F190=0), "", IF(TODAY()&gt;F190, TODAY()-F190, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="N191">
-        <f>IF(I191="完了",0, IF(TODAY()&gt;F191, TODAY()-F191, 0))</f>
+        <f>IF(I191="完了","", IF(OR(F191="", F191=0), "", IF(TODAY()&gt;F191, TODAY()-F191, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="N192">
-        <f>IF(I192="完了",0, IF(TODAY()&gt;F192, TODAY()-F192, 0))</f>
+        <f>IF(I192="完了","", IF(OR(F192="", F192=0), "", IF(TODAY()&gt;F192, TODAY()-F192, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="N193">
-        <f>IF(I193="完了",0, IF(TODAY()&gt;F193, TODAY()-F193, 0))</f>
+        <f>IF(I193="完了","", IF(OR(F193="", F193=0), "", IF(TODAY()&gt;F193, TODAY()-F193, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="N194">
-        <f>IF(I194="完了",0, IF(TODAY()&gt;F194, TODAY()-F194, 0))</f>
+        <f>IF(I194="完了","", IF(OR(F194="", F194=0), "", IF(TODAY()&gt;F194, TODAY()-F194, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="N195">
-        <f>IF(I195="完了",0, IF(TODAY()&gt;F195, TODAY()-F195, 0))</f>
+        <f>IF(I195="完了","", IF(OR(F195="", F195=0), "", IF(TODAY()&gt;F195, TODAY()-F195, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="N196">
-        <f>IF(I196="完了",0, IF(TODAY()&gt;F196, TODAY()-F196, 0))</f>
+        <f>IF(I196="完了","", IF(OR(F196="", F196=0), "", IF(TODAY()&gt;F196, TODAY()-F196, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="N197">
-        <f>IF(I197="完了",0, IF(TODAY()&gt;F197, TODAY()-F197, 0))</f>
+        <f>IF(I197="完了","", IF(OR(F197="", F197=0), "", IF(TODAY()&gt;F197, TODAY()-F197, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="N198">
-        <f>IF(I198="完了",0, IF(TODAY()&gt;F198, TODAY()-F198, 0))</f>
+        <f>IF(I198="完了","", IF(OR(F198="", F198=0), "", IF(TODAY()&gt;F198, TODAY()-F198, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="N199">
-        <f>IF(I199="完了",0, IF(TODAY()&gt;F199, TODAY()-F199, 0))</f>
+        <f>IF(I199="完了","", IF(OR(F199="", F199=0), "", IF(TODAY()&gt;F199, TODAY()-F199, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="N200">
-        <f>IF(I200="完了",0, IF(TODAY()&gt;F200, TODAY()-F200, 0))</f>
+        <f>IF(I200="完了","", IF(OR(F200="", F200=0), "", IF(TODAY()&gt;F200, TODAY()-F200, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="N201">
-        <f>IF(I201="完了",0, IF(TODAY()&gt;F201, TODAY()-F201, 0))</f>
+        <f>IF(I201="完了","", IF(OR(F201="", F201=0), "", IF(TODAY()&gt;F201, TODAY()-F201, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="N202">
-        <f>IF(I202="完了",0, IF(TODAY()&gt;F202, TODAY()-F202, 0))</f>
+        <f>IF(I202="完了","", IF(OR(F202="", F202=0), "", IF(TODAY()&gt;F202, TODAY()-F202, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N203">
-        <f>IF(I203="完了",0, IF(TODAY()&gt;F203, TODAY()-F203, 0))</f>
+        <f>IF(I203="完了","", IF(OR(F203="", F203=0), "", IF(TODAY()&gt;F203, TODAY()-F203, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="N204">
-        <f>IF(I204="完了",0, IF(TODAY()&gt;F204, TODAY()-F204, 0))</f>
+        <f>IF(I204="完了","", IF(OR(F204="", F204=0), "", IF(TODAY()&gt;F204, TODAY()-F204, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="N205">
-        <f>IF(I205="完了",0, IF(TODAY()&gt;F205, TODAY()-F205, 0))</f>
+        <f>IF(I205="完了","", IF(OR(F205="", F205=0), "", IF(TODAY()&gt;F205, TODAY()-F205, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="N206">
-        <f>IF(I206="完了",0, IF(TODAY()&gt;F206, TODAY()-F206, 0))</f>
+        <f>IF(I206="完了","", IF(OR(F206="", F206=0), "", IF(TODAY()&gt;F206, TODAY()-F206, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="N207">
-        <f>IF(I207="完了",0, IF(TODAY()&gt;F207, TODAY()-F207, 0))</f>
+        <f>IF(I207="完了","", IF(OR(F207="", F207=0), "", IF(TODAY()&gt;F207, TODAY()-F207, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="N208">
-        <f>IF(I208="完了",0, IF(TODAY()&gt;F208, TODAY()-F208, 0))</f>
+        <f>IF(I208="完了","", IF(OR(F208="", F208=0), "", IF(TODAY()&gt;F208, TODAY()-F208, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="N209">
-        <f>IF(I209="完了",0, IF(TODAY()&gt;F209, TODAY()-F209, 0))</f>
+        <f>IF(I209="完了","", IF(OR(F209="", F209=0), "", IF(TODAY()&gt;F209, TODAY()-F209, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="N210">
-        <f>IF(I210="完了",0, IF(TODAY()&gt;F210, TODAY()-F210, 0))</f>
+        <f>IF(I210="完了","", IF(OR(F210="", F210=0), "", IF(TODAY()&gt;F210, TODAY()-F210, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="N211">
-        <f>IF(I211="完了",0, IF(TODAY()&gt;F211, TODAY()-F211, 0))</f>
+        <f>IF(I211="完了","", IF(OR(F211="", F211=0), "", IF(TODAY()&gt;F211, TODAY()-F211, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="N212">
-        <f>IF(I212="完了",0, IF(TODAY()&gt;F212, TODAY()-F212, 0))</f>
+        <f>IF(I212="完了","", IF(OR(F212="", F212=0), "", IF(TODAY()&gt;F212, TODAY()-F212, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="N213">
-        <f>IF(I213="完了",0, IF(TODAY()&gt;F213, TODAY()-F213, 0))</f>
+        <f>IF(I213="完了","", IF(OR(F213="", F213=0), "", IF(TODAY()&gt;F213, TODAY()-F213, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="N214">
-        <f>IF(I214="完了",0, IF(TODAY()&gt;F214, TODAY()-F214, 0))</f>
+        <f>IF(I214="完了","", IF(OR(F214="", F214=0), "", IF(TODAY()&gt;F214, TODAY()-F214, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="N215">
-        <f>IF(I215="完了",0, IF(TODAY()&gt;F215, TODAY()-F215, 0))</f>
+        <f>IF(I215="完了","", IF(OR(F215="", F215=0), "", IF(TODAY()&gt;F215, TODAY()-F215, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <f>IF(I216="完了",0, IF(TODAY()&gt;F216, TODAY()-F216, 0))</f>
+        <f>IF(I216="完了","", IF(OR(F216="", F216=0), "", IF(TODAY()&gt;F216, TODAY()-F216, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="N217">
-        <f>IF(I217="完了",0, IF(TODAY()&gt;F217, TODAY()-F217, 0))</f>
+        <f>IF(I217="完了","", IF(OR(F217="", F217=0), "", IF(TODAY()&gt;F217, TODAY()-F217, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="N218">
-        <f>IF(I218="完了",0, IF(TODAY()&gt;F218, TODAY()-F218, 0))</f>
+        <f>IF(I218="完了","", IF(OR(F218="", F218=0), "", IF(TODAY()&gt;F218, TODAY()-F218, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="N219">
-        <f>IF(I219="完了",0, IF(TODAY()&gt;F219, TODAY()-F219, 0))</f>
+        <f>IF(I219="完了","", IF(OR(F219="", F219=0), "", IF(TODAY()&gt;F219, TODAY()-F219, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="N220">
-        <f>IF(I220="完了",0, IF(TODAY()&gt;F220, TODAY()-F220, 0))</f>
+        <f>IF(I220="完了","", IF(OR(F220="", F220=0), "", IF(TODAY()&gt;F220, TODAY()-F220, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="N221">
-        <f>IF(I221="完了",0, IF(TODAY()&gt;F221, TODAY()-F221, 0))</f>
+        <f>IF(I221="完了","", IF(OR(F221="", F221=0), "", IF(TODAY()&gt;F221, TODAY()-F221, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <f>IF(I222="完了",0, IF(TODAY()&gt;F222, TODAY()-F222, 0))</f>
+        <f>IF(I222="完了","", IF(OR(F222="", F222=0), "", IF(TODAY()&gt;F222, TODAY()-F222, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="N223">
-        <f>IF(I223="完了",0, IF(TODAY()&gt;F223, TODAY()-F223, 0))</f>
+        <f>IF(I223="完了","", IF(OR(F223="", F223=0), "", IF(TODAY()&gt;F223, TODAY()-F223, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <f>IF(I224="完了",0, IF(TODAY()&gt;F224, TODAY()-F224, 0))</f>
+        <f>IF(I224="完了","", IF(OR(F224="", F224=0), "", IF(TODAY()&gt;F224, TODAY()-F224, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <f>IF(I225="完了",0, IF(TODAY()&gt;F225, TODAY()-F225, 0))</f>
+        <f>IF(I225="完了","", IF(OR(F225="", F225=0), "", IF(TODAY()&gt;F225, TODAY()-F225, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="N226">
-        <f>IF(I226="完了",0, IF(TODAY()&gt;F226, TODAY()-F226, 0))</f>
+        <f>IF(I226="完了","", IF(OR(F226="", F226=0), "", IF(TODAY()&gt;F226, TODAY()-F226, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="N227">
-        <f>IF(I227="完了",0, IF(TODAY()&gt;F227, TODAY()-F227, 0))</f>
+        <f>IF(I227="完了","", IF(OR(F227="", F227=0), "", IF(TODAY()&gt;F227, TODAY()-F227, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N228">
-        <f>IF(I228="完了",0, IF(TODAY()&gt;F228, TODAY()-F228, 0))</f>
+        <f>IF(I228="完了","", IF(OR(F228="", F228=0), "", IF(TODAY()&gt;F228, TODAY()-F228, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="N229">
-        <f>IF(I229="完了",0, IF(TODAY()&gt;F229, TODAY()-F229, 0))</f>
+        <f>IF(I229="完了","", IF(OR(F229="", F229=0), "", IF(TODAY()&gt;F229, TODAY()-F229, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="N230">
-        <f>IF(I230="完了",0, IF(TODAY()&gt;F230, TODAY()-F230, 0))</f>
+        <f>IF(I230="完了","", IF(OR(F230="", F230=0), "", IF(TODAY()&gt;F230, TODAY()-F230, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="N231">
-        <f>IF(I231="完了",0, IF(TODAY()&gt;F231, TODAY()-F231, 0))</f>
+        <f>IF(I231="完了","", IF(OR(F231="", F231=0), "", IF(TODAY()&gt;F231, TODAY()-F231, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="N232">
-        <f>IF(I232="完了",0, IF(TODAY()&gt;F232, TODAY()-F232, 0))</f>
+        <f>IF(I232="完了","", IF(OR(F232="", F232=0), "", IF(TODAY()&gt;F232, TODAY()-F232, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="N233">
-        <f>IF(I233="完了",0, IF(TODAY()&gt;F233, TODAY()-F233, 0))</f>
+        <f>IF(I233="完了","", IF(OR(F233="", F233=0), "", IF(TODAY()&gt;F233, TODAY()-F233, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="N234">
-        <f>IF(I234="完了",0, IF(TODAY()&gt;F234, TODAY()-F234, 0))</f>
+        <f>IF(I234="完了","", IF(OR(F234="", F234=0), "", IF(TODAY()&gt;F234, TODAY()-F234, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="N235">
-        <f>IF(I235="完了",0, IF(TODAY()&gt;F235, TODAY()-F235, 0))</f>
+        <f>IF(I235="完了","", IF(OR(F235="", F235=0), "", IF(TODAY()&gt;F235, TODAY()-F235, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="N236">
-        <f>IF(I236="完了",0, IF(TODAY()&gt;F236, TODAY()-F236, 0))</f>
+        <f>IF(I236="完了","", IF(OR(F236="", F236=0), "", IF(TODAY()&gt;F236, TODAY()-F236, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="N237">
-        <f>IF(I237="完了",0, IF(TODAY()&gt;F237, TODAY()-F237, 0))</f>
+        <f>IF(I237="完了","", IF(OR(F237="", F237=0), "", IF(TODAY()&gt;F237, TODAY()-F237, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="N238">
-        <f>IF(I238="完了",0, IF(TODAY()&gt;F238, TODAY()-F238, 0))</f>
+        <f>IF(I238="完了","", IF(OR(F238="", F238=0), "", IF(TODAY()&gt;F238, TODAY()-F238, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="N239">
-        <f>IF(I239="完了",0, IF(TODAY()&gt;F239, TODAY()-F239, 0))</f>
+        <f>IF(I239="完了","", IF(OR(F239="", F239=0), "", IF(TODAY()&gt;F239, TODAY()-F239, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="N240">
-        <f>IF(I240="完了",0, IF(TODAY()&gt;F240, TODAY()-F240, 0))</f>
+        <f>IF(I240="完了","", IF(OR(F240="", F240=0), "", IF(TODAY()&gt;F240, TODAY()-F240, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="N241">
-        <f>IF(I241="完了",0, IF(TODAY()&gt;F241, TODAY()-F241, 0))</f>
+        <f>IF(I241="完了","", IF(OR(F241="", F241=0), "", IF(TODAY()&gt;F241, TODAY()-F241, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="N242">
-        <f>IF(I242="完了",0, IF(TODAY()&gt;F242, TODAY()-F242, 0))</f>
+        <f>IF(I242="完了","", IF(OR(F242="", F242=0), "", IF(TODAY()&gt;F242, TODAY()-F242, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="N243">
-        <f>IF(I243="完了",0, IF(TODAY()&gt;F243, TODAY()-F243, 0))</f>
+        <f>IF(I243="完了","", IF(OR(F243="", F243=0), "", IF(TODAY()&gt;F243, TODAY()-F243, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="N244">
-        <f>IF(I244="完了",0, IF(TODAY()&gt;F244, TODAY()-F244, 0))</f>
+        <f>IF(I244="完了","", IF(OR(F244="", F244=0), "", IF(TODAY()&gt;F244, TODAY()-F244, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="N245">
-        <f>IF(I245="完了",0, IF(TODAY()&gt;F245, TODAY()-F245, 0))</f>
+        <f>IF(I245="完了","", IF(OR(F245="", F245=0), "", IF(TODAY()&gt;F245, TODAY()-F245, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="N246">
-        <f>IF(I246="完了",0, IF(TODAY()&gt;F246, TODAY()-F246, 0))</f>
+        <f>IF(I246="完了","", IF(OR(F246="", F246=0), "", IF(TODAY()&gt;F246, TODAY()-F246, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="N247">
-        <f>IF(I247="完了",0, IF(TODAY()&gt;F247, TODAY()-F247, 0))</f>
+        <f>IF(I247="完了","", IF(OR(F247="", F247=0), "", IF(TODAY()&gt;F247, TODAY()-F247, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="N248">
-        <f>IF(I248="完了",0, IF(TODAY()&gt;F248, TODAY()-F248, 0))</f>
+        <f>IF(I248="完了","", IF(OR(F248="", F248=0), "", IF(TODAY()&gt;F248, TODAY()-F248, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="N249">
-        <f>IF(I249="完了",0, IF(TODAY()&gt;F249, TODAY()-F249, 0))</f>
+        <f>IF(I249="完了","", IF(OR(F249="", F249=0), "", IF(TODAY()&gt;F249, TODAY()-F249, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="N250">
-        <f>IF(I250="完了",0, IF(TODAY()&gt;F250, TODAY()-F250, 0))</f>
+        <f>IF(I250="完了","", IF(OR(F250="", F250=0), "", IF(TODAY()&gt;F250, TODAY()-F250, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="N251">
-        <f>IF(I251="完了",0, IF(TODAY()&gt;F251, TODAY()-F251, 0))</f>
+        <f>IF(I251="完了","", IF(OR(F251="", F251=0), "", IF(TODAY()&gt;F251, TODAY()-F251, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="N252">
-        <f>IF(I252="完了",0, IF(TODAY()&gt;F252, TODAY()-F252, 0))</f>
+        <f>IF(I252="完了","", IF(OR(F252="", F252=0), "", IF(TODAY()&gt;F252, TODAY()-F252, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="N253">
-        <f>IF(I253="完了",0, IF(TODAY()&gt;F253, TODAY()-F253, 0))</f>
+        <f>IF(I253="完了","", IF(OR(F253="", F253=0), "", IF(TODAY()&gt;F253, TODAY()-F253, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="N254">
-        <f>IF(I254="完了",0, IF(TODAY()&gt;F254, TODAY()-F254, 0))</f>
+        <f>IF(I254="完了","", IF(OR(F254="", F254=0), "", IF(TODAY()&gt;F254, TODAY()-F254, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="N255">
-        <f>IF(I255="完了",0, IF(TODAY()&gt;F255, TODAY()-F255, 0))</f>
+        <f>IF(I255="完了","", IF(OR(F255="", F255=0), "", IF(TODAY()&gt;F255, TODAY()-F255, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="N256">
-        <f>IF(I256="完了",0, IF(TODAY()&gt;F256, TODAY()-F256, 0))</f>
+        <f>IF(I256="完了","", IF(OR(F256="", F256=0), "", IF(TODAY()&gt;F256, TODAY()-F256, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="N257">
-        <f>IF(I257="完了",0, IF(TODAY()&gt;F257, TODAY()-F257, 0))</f>
+        <f>IF(I257="完了","", IF(OR(F257="", F257=0), "", IF(TODAY()&gt;F257, TODAY()-F257, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="N258">
-        <f>IF(I258="完了",0, IF(TODAY()&gt;F258, TODAY()-F258, 0))</f>
+        <f>IF(I258="完了","", IF(OR(F258="", F258=0), "", IF(TODAY()&gt;F258, TODAY()-F258, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="N259">
-        <f>IF(I259="完了",0, IF(TODAY()&gt;F259, TODAY()-F259, 0))</f>
+        <f>IF(I259="完了","", IF(OR(F259="", F259=0), "", IF(TODAY()&gt;F259, TODAY()-F259, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="N260">
-        <f>IF(I260="完了",0, IF(TODAY()&gt;F260, TODAY()-F260, 0))</f>
+        <f>IF(I260="完了","", IF(OR(F260="", F260=0), "", IF(TODAY()&gt;F260, TODAY()-F260, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="N261">
-        <f>IF(I261="完了",0, IF(TODAY()&gt;F261, TODAY()-F261, 0))</f>
+        <f>IF(I261="完了","", IF(OR(F261="", F261=0), "", IF(TODAY()&gt;F261, TODAY()-F261, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="N262">
-        <f>IF(I262="完了",0, IF(TODAY()&gt;F262, TODAY()-F262, 0))</f>
+        <f>IF(I262="完了","", IF(OR(F262="", F262=0), "", IF(TODAY()&gt;F262, TODAY()-F262, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="N263">
-        <f>IF(I263="完了",0, IF(TODAY()&gt;F263, TODAY()-F263, 0))</f>
+        <f>IF(I263="完了","", IF(OR(F263="", F263=0), "", IF(TODAY()&gt;F263, TODAY()-F263, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="N264">
-        <f>IF(I264="完了",0, IF(TODAY()&gt;F264, TODAY()-F264, 0))</f>
+        <f>IF(I264="完了","", IF(OR(F264="", F264=0), "", IF(TODAY()&gt;F264, TODAY()-F264, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="N265">
-        <f>IF(I265="完了",0, IF(TODAY()&gt;F265, TODAY()-F265, 0))</f>
+        <f>IF(I265="完了","", IF(OR(F265="", F265=0), "", IF(TODAY()&gt;F265, TODAY()-F265, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="N266">
-        <f>IF(I266="完了",0, IF(TODAY()&gt;F266, TODAY()-F266, 0))</f>
+        <f>IF(I266="完了","", IF(OR(F266="", F266=0), "", IF(TODAY()&gt;F266, TODAY()-F266, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="N267">
-        <f>IF(I267="完了",0, IF(TODAY()&gt;F267, TODAY()-F267, 0))</f>
+        <f>IF(I267="完了","", IF(OR(F267="", F267=0), "", IF(TODAY()&gt;F267, TODAY()-F267, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="N268">
-        <f>IF(I268="完了",0, IF(TODAY()&gt;F268, TODAY()-F268, 0))</f>
+        <f>IF(I268="完了","", IF(OR(F268="", F268=0), "", IF(TODAY()&gt;F268, TODAY()-F268, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="N269">
-        <f>IF(I269="完了",0, IF(TODAY()&gt;F269, TODAY()-F269, 0))</f>
+        <f>IF(I269="完了","", IF(OR(F269="", F269=0), "", IF(TODAY()&gt;F269, TODAY()-F269, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="N270">
-        <f>IF(I270="完了",0, IF(TODAY()&gt;F270, TODAY()-F270, 0))</f>
+        <f>IF(I270="完了","", IF(OR(F270="", F270=0), "", IF(TODAY()&gt;F270, TODAY()-F270, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="N271">
-        <f>IF(I271="完了",0, IF(TODAY()&gt;F271, TODAY()-F271, 0))</f>
+        <f>IF(I271="完了","", IF(OR(F271="", F271=0), "", IF(TODAY()&gt;F271, TODAY()-F271, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="N272">
-        <f>IF(I272="完了",0, IF(TODAY()&gt;F272, TODAY()-F272, 0))</f>
+        <f>IF(I272="完了","", IF(OR(F272="", F272=0), "", IF(TODAY()&gt;F272, TODAY()-F272, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="N273">
-        <f>IF(I273="完了",0, IF(TODAY()&gt;F273, TODAY()-F273, 0))</f>
+        <f>IF(I273="完了","", IF(OR(F273="", F273=0), "", IF(TODAY()&gt;F273, TODAY()-F273, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="N274">
-        <f>IF(I274="完了",0, IF(TODAY()&gt;F274, TODAY()-F274, 0))</f>
+        <f>IF(I274="完了","", IF(OR(F274="", F274=0), "", IF(TODAY()&gt;F274, TODAY()-F274, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="N275">
-        <f>IF(I275="完了",0, IF(TODAY()&gt;F275, TODAY()-F275, 0))</f>
+        <f>IF(I275="完了","", IF(OR(F275="", F275=0), "", IF(TODAY()&gt;F275, TODAY()-F275, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="N276">
-        <f>IF(I276="完了",0, IF(TODAY()&gt;F276, TODAY()-F276, 0))</f>
+        <f>IF(I276="完了","", IF(OR(F276="", F276=0), "", IF(TODAY()&gt;F276, TODAY()-F276, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="N277">
-        <f>IF(I277="完了",0, IF(TODAY()&gt;F277, TODAY()-F277, 0))</f>
+        <f>IF(I277="完了","", IF(OR(F277="", F277=0), "", IF(TODAY()&gt;F277, TODAY()-F277, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="N278">
-        <f>IF(I278="完了",0, IF(TODAY()&gt;F278, TODAY()-F278, 0))</f>
+        <f>IF(I278="完了","", IF(OR(F278="", F278=0), "", IF(TODAY()&gt;F278, TODAY()-F278, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="N279">
-        <f>IF(I279="完了",0, IF(TODAY()&gt;F279, TODAY()-F279, 0))</f>
+        <f>IF(I279="完了","", IF(OR(F279="", F279=0), "", IF(TODAY()&gt;F279, TODAY()-F279, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="N280">
-        <f>IF(I280="完了",0, IF(TODAY()&gt;F280, TODAY()-F280, 0))</f>
+        <f>IF(I280="完了","", IF(OR(F280="", F280=0), "", IF(TODAY()&gt;F280, TODAY()-F280, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N281">
-        <f>IF(I281="完了",0, IF(TODAY()&gt;F281, TODAY()-F281, 0))</f>
+        <f>IF(I281="完了","", IF(OR(F281="", F281=0), "", IF(TODAY()&gt;F281, TODAY()-F281, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="N282">
-        <f>IF(I282="完了",0, IF(TODAY()&gt;F282, TODAY()-F282, 0))</f>
+        <f>IF(I282="完了","", IF(OR(F282="", F282=0), "", IF(TODAY()&gt;F282, TODAY()-F282, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="N283">
-        <f>IF(I283="完了",0, IF(TODAY()&gt;F283, TODAY()-F283, 0))</f>
+        <f>IF(I283="完了","", IF(OR(F283="", F283=0), "", IF(TODAY()&gt;F283, TODAY()-F283, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="N284">
-        <f>IF(I284="完了",0, IF(TODAY()&gt;F284, TODAY()-F284, 0))</f>
+        <f>IF(I284="完了","", IF(OR(F284="", F284=0), "", IF(TODAY()&gt;F284, TODAY()-F284, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="N285">
-        <f>IF(I285="完了",0, IF(TODAY()&gt;F285, TODAY()-F285, 0))</f>
+        <f>IF(I285="完了","", IF(OR(F285="", F285=0), "", IF(TODAY()&gt;F285, TODAY()-F285, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="N286">
-        <f>IF(I286="完了",0, IF(TODAY()&gt;F286, TODAY()-F286, 0))</f>
+        <f>IF(I286="完了","", IF(OR(F286="", F286=0), "", IF(TODAY()&gt;F286, TODAY()-F286, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="N287">
-        <f>IF(I287="完了",0, IF(TODAY()&gt;F287, TODAY()-F287, 0))</f>
+        <f>IF(I287="完了","", IF(OR(F287="", F287=0), "", IF(TODAY()&gt;F287, TODAY()-F287, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="N288">
-        <f>IF(I288="完了",0, IF(TODAY()&gt;F288, TODAY()-F288, 0))</f>
+        <f>IF(I288="完了","", IF(OR(F288="", F288=0), "", IF(TODAY()&gt;F288, TODAY()-F288, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="N289">
-        <f>IF(I289="完了",0, IF(TODAY()&gt;F289, TODAY()-F289, 0))</f>
+        <f>IF(I289="完了","", IF(OR(F289="", F289=0), "", IF(TODAY()&gt;F289, TODAY()-F289, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="N290">
-        <f>IF(I290="完了",0, IF(TODAY()&gt;F290, TODAY()-F290, 0))</f>
+        <f>IF(I290="完了","", IF(OR(F290="", F290=0), "", IF(TODAY()&gt;F290, TODAY()-F290, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="N291">
-        <f>IF(I291="完了",0, IF(TODAY()&gt;F291, TODAY()-F291, 0))</f>
+        <f>IF(I291="完了","", IF(OR(F291="", F291=0), "", IF(TODAY()&gt;F291, TODAY()-F291, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="N292">
-        <f>IF(I292="完了",0, IF(TODAY()&gt;F292, TODAY()-F292, 0))</f>
+        <f>IF(I292="完了","", IF(OR(F292="", F292=0), "", IF(TODAY()&gt;F292, TODAY()-F292, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="N293">
-        <f>IF(I293="完了",0, IF(TODAY()&gt;F293, TODAY()-F293, 0))</f>
+        <f>IF(I293="完了","", IF(OR(F293="", F293=0), "", IF(TODAY()&gt;F293, TODAY()-F293, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="N294">
-        <f>IF(I294="完了",0, IF(TODAY()&gt;F294, TODAY()-F294, 0))</f>
+        <f>IF(I294="完了","", IF(OR(F294="", F294=0), "", IF(TODAY()&gt;F294, TODAY()-F294, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="N295">
-        <f>IF(I295="完了",0, IF(TODAY()&gt;F295, TODAY()-F295, 0))</f>
+        <f>IF(I295="完了","", IF(OR(F295="", F295=0), "", IF(TODAY()&gt;F295, TODAY()-F295, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="N296">
-        <f>IF(I296="完了",0, IF(TODAY()&gt;F296, TODAY()-F296, 0))</f>
+        <f>IF(I296="完了","", IF(OR(F296="", F296=0), "", IF(TODAY()&gt;F296, TODAY()-F296, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="N297">
-        <f>IF(I297="完了",0, IF(TODAY()&gt;F297, TODAY()-F297, 0))</f>
+        <f>IF(I297="完了","", IF(OR(F297="", F297=0), "", IF(TODAY()&gt;F297, TODAY()-F297, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="N298">
-        <f>IF(I298="完了",0, IF(TODAY()&gt;F298, TODAY()-F298, 0))</f>
+        <f>IF(I298="完了","", IF(OR(F298="", F298=0), "", IF(TODAY()&gt;F298, TODAY()-F298, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="N299">
-        <f>IF(I299="完了",0, IF(TODAY()&gt;F299, TODAY()-F299, 0))</f>
+        <f>IF(I299="完了","", IF(OR(F299="", F299=0), "", IF(TODAY()&gt;F299, TODAY()-F299, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="N300">
-        <f>IF(I300="完了",0, IF(TODAY()&gt;F300, TODAY()-F300, 0))</f>
+        <f>IF(I300="完了","", IF(OR(F300="", F300=0), "", IF(TODAY()&gt;F300, TODAY()-F300, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="N301">
-        <f>IF(I301="完了",0, IF(TODAY()&gt;F301, TODAY()-F301, 0))</f>
+        <f>IF(I301="完了","", IF(OR(F301="", F301=0), "", IF(TODAY()&gt;F301, TODAY()-F301, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="N302">
-        <f>IF(I302="完了",0, IF(TODAY()&gt;F302, TODAY()-F302, 0))</f>
+        <f>IF(I302="完了","", IF(OR(F302="", F302=0), "", IF(TODAY()&gt;F302, TODAY()-F302, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="N303">
-        <f>IF(I303="完了",0, IF(TODAY()&gt;F303, TODAY()-F303, 0))</f>
+        <f>IF(I303="完了","", IF(OR(F303="", F303=0), "", IF(TODAY()&gt;F303, TODAY()-F303, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="N304">
-        <f>IF(I304="完了",0, IF(TODAY()&gt;F304, TODAY()-F304, 0))</f>
+        <f>IF(I304="完了","", IF(OR(F304="", F304=0), "", IF(TODAY()&gt;F304, TODAY()-F304, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="N305">
-        <f>IF(I305="完了",0, IF(TODAY()&gt;F305, TODAY()-F305, 0))</f>
+        <f>IF(I305="完了","", IF(OR(F305="", F305=0), "", IF(TODAY()&gt;F305, TODAY()-F305, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="N306">
-        <f>IF(I306="完了",0, IF(TODAY()&gt;F306, TODAY()-F306, 0))</f>
+        <f>IF(I306="完了","", IF(OR(F306="", F306=0), "", IF(TODAY()&gt;F306, TODAY()-F306, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="N307">
-        <f>IF(I307="完了",0, IF(TODAY()&gt;F307, TODAY()-F307, 0))</f>
+        <f>IF(I307="完了","", IF(OR(F307="", F307=0), "", IF(TODAY()&gt;F307, TODAY()-F307, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="N308">
-        <f>IF(I308="完了",0, IF(TODAY()&gt;F308, TODAY()-F308, 0))</f>
+        <f>IF(I308="完了","", IF(OR(F308="", F308=0), "", IF(TODAY()&gt;F308, TODAY()-F308, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="N309">
-        <f>IF(I309="完了",0, IF(TODAY()&gt;F309, TODAY()-F309, 0))</f>
+        <f>IF(I309="完了","", IF(OR(F309="", F309=0), "", IF(TODAY()&gt;F309, TODAY()-F309, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="N310">
-        <f>IF(I310="完了",0, IF(TODAY()&gt;F310, TODAY()-F310, 0))</f>
+        <f>IF(I310="完了","", IF(OR(F310="", F310=0), "", IF(TODAY()&gt;F310, TODAY()-F310, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="N311">
-        <f>IF(I311="完了",0, IF(TODAY()&gt;F311, TODAY()-F311, 0))</f>
+        <f>IF(I311="完了","", IF(OR(F311="", F311=0), "", IF(TODAY()&gt;F311, TODAY()-F311, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="N312">
-        <f>IF(I312="完了",0, IF(TODAY()&gt;F312, TODAY()-F312, 0))</f>
+        <f>IF(I312="完了","", IF(OR(F312="", F312=0), "", IF(TODAY()&gt;F312, TODAY()-F312, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="N313">
-        <f>IF(I313="完了",0, IF(TODAY()&gt;F313, TODAY()-F313, 0))</f>
+        <f>IF(I313="完了","", IF(OR(F313="", F313=0), "", IF(TODAY()&gt;F313, TODAY()-F313, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="N314">
-        <f>IF(I314="完了",0, IF(TODAY()&gt;F314, TODAY()-F314, 0))</f>
+        <f>IF(I314="完了","", IF(OR(F314="", F314=0), "", IF(TODAY()&gt;F314, TODAY()-F314, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="N315">
-        <f>IF(I315="完了",0, IF(TODAY()&gt;F315, TODAY()-F315, 0))</f>
+        <f>IF(I315="完了","", IF(OR(F315="", F315=0), "", IF(TODAY()&gt;F315, TODAY()-F315, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="N316">
-        <f>IF(I316="完了",0, IF(TODAY()&gt;F316, TODAY()-F316, 0))</f>
+        <f>IF(I316="完了","", IF(OR(F316="", F316=0), "", IF(TODAY()&gt;F316, TODAY()-F316, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="N317">
-        <f>IF(I317="完了",0, IF(TODAY()&gt;F317, TODAY()-F317, 0))</f>
+        <f>IF(I317="完了","", IF(OR(F317="", F317=0), "", IF(TODAY()&gt;F317, TODAY()-F317, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="N318">
-        <f>IF(I318="完了",0, IF(TODAY()&gt;F318, TODAY()-F318, 0))</f>
+        <f>IF(I318="完了","", IF(OR(F318="", F318=0), "", IF(TODAY()&gt;F318, TODAY()-F318, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="N319">
-        <f>IF(I319="完了",0, IF(TODAY()&gt;F319, TODAY()-F319, 0))</f>
+        <f>IF(I319="完了","", IF(OR(F319="", F319=0), "", IF(TODAY()&gt;F319, TODAY()-F319, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="N320">
-        <f>IF(I320="完了",0, IF(TODAY()&gt;F320, TODAY()-F320, 0))</f>
+        <f>IF(I320="完了","", IF(OR(F320="", F320=0), "", IF(TODAY()&gt;F320, TODAY()-F320, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="N321">
-        <f>IF(I321="完了",0, IF(TODAY()&gt;F321, TODAY()-F321, 0))</f>
+        <f>IF(I321="完了","", IF(OR(F321="", F321=0), "", IF(TODAY()&gt;F321, TODAY()-F321, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="N322">
-        <f>IF(I322="完了",0, IF(TODAY()&gt;F322, TODAY()-F322, 0))</f>
+        <f>IF(I322="完了","", IF(OR(F322="", F322=0), "", IF(TODAY()&gt;F322, TODAY()-F322, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="N323">
-        <f>IF(I323="完了",0, IF(TODAY()&gt;F323, TODAY()-F323, 0))</f>
+        <f>IF(I323="完了","", IF(OR(F323="", F323=0), "", IF(TODAY()&gt;F323, TODAY()-F323, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="N324">
-        <f>IF(I324="完了",0, IF(TODAY()&gt;F324, TODAY()-F324, 0))</f>
+        <f>IF(I324="完了","", IF(OR(F324="", F324=0), "", IF(TODAY()&gt;F324, TODAY()-F324, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="N325">
-        <f>IF(I325="完了",0, IF(TODAY()&gt;F325, TODAY()-F325, 0))</f>
+        <f>IF(I325="完了","", IF(OR(F325="", F325=0), "", IF(TODAY()&gt;F325, TODAY()-F325, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="N326">
-        <f>IF(I326="完了",0, IF(TODAY()&gt;F326, TODAY()-F326, 0))</f>
+        <f>IF(I326="完了","", IF(OR(F326="", F326=0), "", IF(TODAY()&gt;F326, TODAY()-F326, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="N327">
-        <f>IF(I327="完了",0, IF(TODAY()&gt;F327, TODAY()-F327, 0))</f>
+        <f>IF(I327="完了","", IF(OR(F327="", F327=0), "", IF(TODAY()&gt;F327, TODAY()-F327, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="N328">
-        <f>IF(I328="完了",0, IF(TODAY()&gt;F328, TODAY()-F328, 0))</f>
+        <f>IF(I328="完了","", IF(OR(F328="", F328=0), "", IF(TODAY()&gt;F328, TODAY()-F328, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="N329">
-        <f>IF(I329="完了",0, IF(TODAY()&gt;F329, TODAY()-F329, 0))</f>
+        <f>IF(I329="完了","", IF(OR(F329="", F329=0), "", IF(TODAY()&gt;F329, TODAY()-F329, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="N330">
-        <f>IF(I330="完了",0, IF(TODAY()&gt;F330, TODAY()-F330, 0))</f>
+        <f>IF(I330="完了","", IF(OR(F330="", F330=0), "", IF(TODAY()&gt;F330, TODAY()-F330, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="N331">
-        <f>IF(I331="完了",0, IF(TODAY()&gt;F331, TODAY()-F331, 0))</f>
+        <f>IF(I331="完了","", IF(OR(F331="", F331=0), "", IF(TODAY()&gt;F331, TODAY()-F331, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="N332">
-        <f>IF(I332="完了",0, IF(TODAY()&gt;F332, TODAY()-F332, 0))</f>
+        <f>IF(I332="完了","", IF(OR(F332="", F332=0), "", IF(TODAY()&gt;F332, TODAY()-F332, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="N333">
-        <f>IF(I333="完了",0, IF(TODAY()&gt;F333, TODAY()-F333, 0))</f>
+        <f>IF(I333="完了","", IF(OR(F333="", F333=0), "", IF(TODAY()&gt;F333, TODAY()-F333, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N334">
-        <f>IF(I334="完了",0, IF(TODAY()&gt;F334, TODAY()-F334, 0))</f>
+        <f>IF(I334="完了","", IF(OR(F334="", F334=0), "", IF(TODAY()&gt;F334, TODAY()-F334, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="N335">
-        <f>IF(I335="完了",0, IF(TODAY()&gt;F335, TODAY()-F335, 0))</f>
+        <f>IF(I335="完了","", IF(OR(F335="", F335=0), "", IF(TODAY()&gt;F335, TODAY()-F335, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="N336">
-        <f>IF(I336="完了",0, IF(TODAY()&gt;F336, TODAY()-F336, 0))</f>
+        <f>IF(I336="完了","", IF(OR(F336="", F336=0), "", IF(TODAY()&gt;F336, TODAY()-F336, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="N337">
-        <f>IF(I337="完了",0, IF(TODAY()&gt;F337, TODAY()-F337, 0))</f>
+        <f>IF(I337="完了","", IF(OR(F337="", F337=0), "", IF(TODAY()&gt;F337, TODAY()-F337, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="N338">
-        <f>IF(I338="完了",0, IF(TODAY()&gt;F338, TODAY()-F338, 0))</f>
+        <f>IF(I338="完了","", IF(OR(F338="", F338=0), "", IF(TODAY()&gt;F338, TODAY()-F338, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="N339">
-        <f>IF(I339="完了",0, IF(TODAY()&gt;F339, TODAY()-F339, 0))</f>
+        <f>IF(I339="完了","", IF(OR(F339="", F339=0), "", IF(TODAY()&gt;F339, TODAY()-F339, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="N340">
-        <f>IF(I340="完了",0, IF(TODAY()&gt;F340, TODAY()-F340, 0))</f>
+        <f>IF(I340="完了","", IF(OR(F340="", F340=0), "", IF(TODAY()&gt;F340, TODAY()-F340, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="N341">
-        <f>IF(I341="完了",0, IF(TODAY()&gt;F341, TODAY()-F341, 0))</f>
+        <f>IF(I341="完了","", IF(OR(F341="", F341=0), "", IF(TODAY()&gt;F341, TODAY()-F341, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="N342">
-        <f>IF(I342="完了",0, IF(TODAY()&gt;F342, TODAY()-F342, 0))</f>
+        <f>IF(I342="完了","", IF(OR(F342="", F342=0), "", IF(TODAY()&gt;F342, TODAY()-F342, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="N343">
-        <f>IF(I343="完了",0, IF(TODAY()&gt;F343, TODAY()-F343, 0))</f>
+        <f>IF(I343="完了","", IF(OR(F343="", F343=0), "", IF(TODAY()&gt;F343, TODAY()-F343, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="N344">
-        <f>IF(I344="完了",0, IF(TODAY()&gt;F344, TODAY()-F344, 0))</f>
+        <f>IF(I344="完了","", IF(OR(F344="", F344=0), "", IF(TODAY()&gt;F344, TODAY()-F344, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="N345">
-        <f>IF(I345="完了",0, IF(TODAY()&gt;F345, TODAY()-F345, 0))</f>
+        <f>IF(I345="完了","", IF(OR(F345="", F345=0), "", IF(TODAY()&gt;F345, TODAY()-F345, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="N346">
-        <f>IF(I346="完了",0, IF(TODAY()&gt;F346, TODAY()-F346, 0))</f>
+        <f>IF(I346="完了","", IF(OR(F346="", F346=0), "", IF(TODAY()&gt;F346, TODAY()-F346, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="N347">
-        <f>IF(I347="完了",0, IF(TODAY()&gt;F347, TODAY()-F347, 0))</f>
+        <f>IF(I347="完了","", IF(OR(F347="", F347=0), "", IF(TODAY()&gt;F347, TODAY()-F347, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="N348">
-        <f>IF(I348="完了",0, IF(TODAY()&gt;F348, TODAY()-F348, 0))</f>
+        <f>IF(I348="完了","", IF(OR(F348="", F348=0), "", IF(TODAY()&gt;F348, TODAY()-F348, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="N349">
-        <f>IF(I349="完了",0, IF(TODAY()&gt;F349, TODAY()-F349, 0))</f>
+        <f>IF(I349="完了","", IF(OR(F349="", F349=0), "", IF(TODAY()&gt;F349, TODAY()-F349, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="N350">
-        <f>IF(I350="完了",0, IF(TODAY()&gt;F350, TODAY()-F350, 0))</f>
+        <f>IF(I350="完了","", IF(OR(F350="", F350=0), "", IF(TODAY()&gt;F350, TODAY()-F350, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="N351">
-        <f>IF(I351="完了",0, IF(TODAY()&gt;F351, TODAY()-F351, 0))</f>
+        <f>IF(I351="完了","", IF(OR(F351="", F351=0), "", IF(TODAY()&gt;F351, TODAY()-F351, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="N352">
-        <f>IF(I352="完了",0, IF(TODAY()&gt;F352, TODAY()-F352, 0))</f>
+        <f>IF(I352="完了","", IF(OR(F352="", F352=0), "", IF(TODAY()&gt;F352, TODAY()-F352, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="N353">
-        <f>IF(I353="完了",0, IF(TODAY()&gt;F353, TODAY()-F353, 0))</f>
+        <f>IF(I353="完了","", IF(OR(F353="", F353=0), "", IF(TODAY()&gt;F353, TODAY()-F353, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="N354">
-        <f>IF(I354="完了",0, IF(TODAY()&gt;F354, TODAY()-F354, 0))</f>
+        <f>IF(I354="完了","", IF(OR(F354="", F354=0), "", IF(TODAY()&gt;F354, TODAY()-F354, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="N355">
-        <f>IF(I355="完了",0, IF(TODAY()&gt;F355, TODAY()-F355, 0))</f>
+        <f>IF(I355="完了","", IF(OR(F355="", F355=0), "", IF(TODAY()&gt;F355, TODAY()-F355, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="N356">
-        <f>IF(I356="完了",0, IF(TODAY()&gt;F356, TODAY()-F356, 0))</f>
+        <f>IF(I356="完了","", IF(OR(F356="", F356=0), "", IF(TODAY()&gt;F356, TODAY()-F356, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="N357">
-        <f>IF(I357="完了",0, IF(TODAY()&gt;F357, TODAY()-F357, 0))</f>
+        <f>IF(I357="完了","", IF(OR(F357="", F357=0), "", IF(TODAY()&gt;F357, TODAY()-F357, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="N358">
-        <f>IF(I358="完了",0, IF(TODAY()&gt;F358, TODAY()-F358, 0))</f>
+        <f>IF(I358="完了","", IF(OR(F358="", F358=0), "", IF(TODAY()&gt;F358, TODAY()-F358, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="N359">
-        <f>IF(I359="完了",0, IF(TODAY()&gt;F359, TODAY()-F359, 0))</f>
+        <f>IF(I359="完了","", IF(OR(F359="", F359=0), "", IF(TODAY()&gt;F359, TODAY()-F359, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="N360">
-        <f>IF(I360="完了",0, IF(TODAY()&gt;F360, TODAY()-F360, 0))</f>
+        <f>IF(I360="完了","", IF(OR(F360="", F360=0), "", IF(TODAY()&gt;F360, TODAY()-F360, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="N361">
-        <f>IF(I361="完了",0, IF(TODAY()&gt;F361, TODAY()-F361, 0))</f>
+        <f>IF(I361="完了","", IF(OR(F361="", F361=0), "", IF(TODAY()&gt;F361, TODAY()-F361, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="N362">
-        <f>IF(I362="完了",0, IF(TODAY()&gt;F362, TODAY()-F362, 0))</f>
+        <f>IF(I362="完了","", IF(OR(F362="", F362=0), "", IF(TODAY()&gt;F362, TODAY()-F362, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="N363">
-        <f>IF(I363="完了",0, IF(TODAY()&gt;F363, TODAY()-F363, 0))</f>
+        <f>IF(I363="完了","", IF(OR(F363="", F363=0), "", IF(TODAY()&gt;F363, TODAY()-F363, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="N364">
-        <f>IF(I364="完了",0, IF(TODAY()&gt;F364, TODAY()-F364, 0))</f>
+        <f>IF(I364="完了","", IF(OR(F364="", F364=0), "", IF(TODAY()&gt;F364, TODAY()-F364, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="N365">
-        <f>IF(I365="完了",0, IF(TODAY()&gt;F365, TODAY()-F365, 0))</f>
+        <f>IF(I365="完了","", IF(OR(F365="", F365=0), "", IF(TODAY()&gt;F365, TODAY()-F365, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="N366">
-        <f>IF(I366="完了",0, IF(TODAY()&gt;F366, TODAY()-F366, 0))</f>
+        <f>IF(I366="完了","", IF(OR(F366="", F366=0), "", IF(TODAY()&gt;F366, TODAY()-F366, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="N367">
-        <f>IF(I367="完了",0, IF(TODAY()&gt;F367, TODAY()-F367, 0))</f>
+        <f>IF(I367="完了","", IF(OR(F367="", F367=0), "", IF(TODAY()&gt;F367, TODAY()-F367, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="N368">
-        <f>IF(I368="完了",0, IF(TODAY()&gt;F368, TODAY()-F368, 0))</f>
+        <f>IF(I368="完了","", IF(OR(F368="", F368=0), "", IF(TODAY()&gt;F368, TODAY()-F368, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="N369">
-        <f>IF(I369="完了",0, IF(TODAY()&gt;F369, TODAY()-F369, 0))</f>
+        <f>IF(I369="完了","", IF(OR(F369="", F369=0), "", IF(TODAY()&gt;F369, TODAY()-F369, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="N370">
-        <f>IF(I370="完了",0, IF(TODAY()&gt;F370, TODAY()-F370, 0))</f>
+        <f>IF(I370="完了","", IF(OR(F370="", F370=0), "", IF(TODAY()&gt;F370, TODAY()-F370, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="N371">
-        <f>IF(I371="完了",0, IF(TODAY()&gt;F371, TODAY()-F371, 0))</f>
+        <f>IF(I371="完了","", IF(OR(F371="", F371=0), "", IF(TODAY()&gt;F371, TODAY()-F371, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="N372">
-        <f>IF(I372="完了",0, IF(TODAY()&gt;F372, TODAY()-F372, 0))</f>
+        <f>IF(I372="完了","", IF(OR(F372="", F372=0), "", IF(TODAY()&gt;F372, TODAY()-F372, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="N373">
-        <f>IF(I373="完了",0, IF(TODAY()&gt;F373, TODAY()-F373, 0))</f>
+        <f>IF(I373="完了","", IF(OR(F373="", F373=0), "", IF(TODAY()&gt;F373, TODAY()-F373, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="N374">
-        <f>IF(I374="完了",0, IF(TODAY()&gt;F374, TODAY()-F374, 0))</f>
+        <f>IF(I374="完了","", IF(OR(F374="", F374=0), "", IF(TODAY()&gt;F374, TODAY()-F374, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="N375">
-        <f>IF(I375="完了",0, IF(TODAY()&gt;F375, TODAY()-F375, 0))</f>
+        <f>IF(I375="完了","", IF(OR(F375="", F375=0), "", IF(TODAY()&gt;F375, TODAY()-F375, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="N376">
-        <f>IF(I376="完了",0, IF(TODAY()&gt;F376, TODAY()-F376, 0))</f>
+        <f>IF(I376="完了","", IF(OR(F376="", F376=0), "", IF(TODAY()&gt;F376, TODAY()-F376, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="N377">
-        <f>IF(I377="完了",0, IF(TODAY()&gt;F377, TODAY()-F377, 0))</f>
+        <f>IF(I377="完了","", IF(OR(F377="", F377=0), "", IF(TODAY()&gt;F377, TODAY()-F377, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="N378">
-        <f>IF(I378="完了",0, IF(TODAY()&gt;F378, TODAY()-F378, 0))</f>
+        <f>IF(I378="完了","", IF(OR(F378="", F378=0), "", IF(TODAY()&gt;F378, TODAY()-F378, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="N379">
-        <f>IF(I379="完了",0, IF(TODAY()&gt;F379, TODAY()-F379, 0))</f>
+        <f>IF(I379="完了","", IF(OR(F379="", F379=0), "", IF(TODAY()&gt;F379, TODAY()-F379, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="N380">
-        <f>IF(I380="完了",0, IF(TODAY()&gt;F380, TODAY()-F380, 0))</f>
+        <f>IF(I380="完了","", IF(OR(F380="", F380=0), "", IF(TODAY()&gt;F380, TODAY()-F380, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="N381">
-        <f>IF(I381="完了",0, IF(TODAY()&gt;F381, TODAY()-F381, 0))</f>
+        <f>IF(I381="完了","", IF(OR(F381="", F381=0), "", IF(TODAY()&gt;F381, TODAY()-F381, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="N382">
-        <f>IF(I382="完了",0, IF(TODAY()&gt;F382, TODAY()-F382, 0))</f>
+        <f>IF(I382="完了","", IF(OR(F382="", F382=0), "", IF(TODAY()&gt;F382, TODAY()-F382, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="N383">
-        <f>IF(I383="完了",0, IF(TODAY()&gt;F383, TODAY()-F383, 0))</f>
+        <f>IF(I383="完了","", IF(OR(F383="", F383=0), "", IF(TODAY()&gt;F383, TODAY()-F383, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="N384">
-        <f>IF(I384="完了",0, IF(TODAY()&gt;F384, TODAY()-F384, 0))</f>
+        <f>IF(I384="完了","", IF(OR(F384="", F384=0), "", IF(TODAY()&gt;F384, TODAY()-F384, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="N385">
-        <f>IF(I385="完了",0, IF(TODAY()&gt;F385, TODAY()-F385, 0))</f>
+        <f>IF(I385="完了","", IF(OR(F385="", F385=0), "", IF(TODAY()&gt;F385, TODAY()-F385, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="N386">
-        <f>IF(I386="完了",0, IF(TODAY()&gt;F386, TODAY()-F386, 0))</f>
+        <f>IF(I386="完了","", IF(OR(F386="", F386=0), "", IF(TODAY()&gt;F386, TODAY()-F386, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N387">
-        <f>IF(I387="完了",0, IF(TODAY()&gt;F387, TODAY()-F387, 0))</f>
+        <f>IF(I387="完了","", IF(OR(F387="", F387=0), "", IF(TODAY()&gt;F387, TODAY()-F387, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="N388">
-        <f>IF(I388="完了",0, IF(TODAY()&gt;F388, TODAY()-F388, 0))</f>
+        <f>IF(I388="完了","", IF(OR(F388="", F388=0), "", IF(TODAY()&gt;F388, TODAY()-F388, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="N389">
-        <f>IF(I389="完了",0, IF(TODAY()&gt;F389, TODAY()-F389, 0))</f>
+        <f>IF(I389="完了","", IF(OR(F389="", F389=0), "", IF(TODAY()&gt;F389, TODAY()-F389, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="N390">
-        <f>IF(I390="完了",0, IF(TODAY()&gt;F390, TODAY()-F390, 0))</f>
+        <f>IF(I390="完了","", IF(OR(F390="", F390=0), "", IF(TODAY()&gt;F390, TODAY()-F390, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="N391">
-        <f>IF(I391="完了",0, IF(TODAY()&gt;F391, TODAY()-F391, 0))</f>
+        <f>IF(I391="完了","", IF(OR(F391="", F391=0), "", IF(TODAY()&gt;F391, TODAY()-F391, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="N392">
-        <f>IF(I392="完了",0, IF(TODAY()&gt;F392, TODAY()-F392, 0))</f>
+        <f>IF(I392="完了","", IF(OR(F392="", F392=0), "", IF(TODAY()&gt;F392, TODAY()-F392, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="N393">
-        <f>IF(I393="完了",0, IF(TODAY()&gt;F393, TODAY()-F393, 0))</f>
+        <f>IF(I393="完了","", IF(OR(F393="", F393=0), "", IF(TODAY()&gt;F393, TODAY()-F393, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="N394">
-        <f>IF(I394="完了",0, IF(TODAY()&gt;F394, TODAY()-F394, 0))</f>
+        <f>IF(I394="完了","", IF(OR(F394="", F394=0), "", IF(TODAY()&gt;F394, TODAY()-F394, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="N395">
-        <f>IF(I395="完了",0, IF(TODAY()&gt;F395, TODAY()-F395, 0))</f>
+        <f>IF(I395="完了","", IF(OR(F395="", F395=0), "", IF(TODAY()&gt;F395, TODAY()-F395, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="N396">
-        <f>IF(I396="完了",0, IF(TODAY()&gt;F396, TODAY()-F396, 0))</f>
+        <f>IF(I396="完了","", IF(OR(F396="", F396=0), "", IF(TODAY()&gt;F396, TODAY()-F396, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="N397">
-        <f>IF(I397="完了",0, IF(TODAY()&gt;F397, TODAY()-F397, 0))</f>
+        <f>IF(I397="完了","", IF(OR(F397="", F397=0), "", IF(TODAY()&gt;F397, TODAY()-F397, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="N398">
-        <f>IF(I398="完了",0, IF(TODAY()&gt;F398, TODAY()-F398, 0))</f>
+        <f>IF(I398="完了","", IF(OR(F398="", F398=0), "", IF(TODAY()&gt;F398, TODAY()-F398, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="N399">
-        <f>IF(I399="完了",0, IF(TODAY()&gt;F399, TODAY()-F399, 0))</f>
+        <f>IF(I399="完了","", IF(OR(F399="", F399=0), "", IF(TODAY()&gt;F399, TODAY()-F399, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="N400">
-        <f>IF(I400="完了",0, IF(TODAY()&gt;F400, TODAY()-F400, 0))</f>
+        <f>IF(I400="完了","", IF(OR(F400="", F400=0), "", IF(TODAY()&gt;F400, TODAY()-F400, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="N401">
-        <f>IF(I401="完了",0, IF(TODAY()&gt;F401, TODAY()-F401, 0))</f>
+        <f>IF(I401="完了","", IF(OR(F401="", F401=0), "", IF(TODAY()&gt;F401, TODAY()-F401, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="N402">
-        <f>IF(I402="完了",0, IF(TODAY()&gt;F402, TODAY()-F402, 0))</f>
+        <f>IF(I402="完了","", IF(OR(F402="", F402=0), "", IF(TODAY()&gt;F402, TODAY()-F402, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="N403">
-        <f>IF(I403="完了",0, IF(TODAY()&gt;F403, TODAY()-F403, 0))</f>
+        <f>IF(I403="完了","", IF(OR(F403="", F403=0), "", IF(TODAY()&gt;F403, TODAY()-F403, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="N404">
-        <f>IF(I404="完了",0, IF(TODAY()&gt;F404, TODAY()-F404, 0))</f>
+        <f>IF(I404="完了","", IF(OR(F404="", F404=0), "", IF(TODAY()&gt;F404, TODAY()-F404, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="N405">
-        <f>IF(I405="完了",0, IF(TODAY()&gt;F405, TODAY()-F405, 0))</f>
+        <f>IF(I405="完了","", IF(OR(F405="", F405=0), "", IF(TODAY()&gt;F405, TODAY()-F405, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="N406">
-        <f>IF(I406="完了",0, IF(TODAY()&gt;F406, TODAY()-F406, 0))</f>
+        <f>IF(I406="完了","", IF(OR(F406="", F406=0), "", IF(TODAY()&gt;F406, TODAY()-F406, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="N407">
-        <f>IF(I407="完了",0, IF(TODAY()&gt;F407, TODAY()-F407, 0))</f>
+        <f>IF(I407="完了","", IF(OR(F407="", F407=0), "", IF(TODAY()&gt;F407, TODAY()-F407, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="N408">
-        <f>IF(I408="完了",0, IF(TODAY()&gt;F408, TODAY()-F408, 0))</f>
+        <f>IF(I408="完了","", IF(OR(F408="", F408=0), "", IF(TODAY()&gt;F408, TODAY()-F408, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="N409">
-        <f>IF(I409="完了",0, IF(TODAY()&gt;F409, TODAY()-F409, 0))</f>
+        <f>IF(I409="完了","", IF(OR(F409="", F409=0), "", IF(TODAY()&gt;F409, TODAY()-F409, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="N410">
-        <f>IF(I410="完了",0, IF(TODAY()&gt;F410, TODAY()-F410, 0))</f>
+        <f>IF(I410="完了","", IF(OR(F410="", F410=0), "", IF(TODAY()&gt;F410, TODAY()-F410, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="N411">
-        <f>IF(I411="完了",0, IF(TODAY()&gt;F411, TODAY()-F411, 0))</f>
+        <f>IF(I411="完了","", IF(OR(F411="", F411=0), "", IF(TODAY()&gt;F411, TODAY()-F411, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="N412">
-        <f>IF(I412="完了",0, IF(TODAY()&gt;F412, TODAY()-F412, 0))</f>
+        <f>IF(I412="完了","", IF(OR(F412="", F412=0), "", IF(TODAY()&gt;F412, TODAY()-F412, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="N413">
-        <f>IF(I413="完了",0, IF(TODAY()&gt;F413, TODAY()-F413, 0))</f>
+        <f>IF(I413="完了","", IF(OR(F413="", F413=0), "", IF(TODAY()&gt;F413, TODAY()-F413, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="N414">
-        <f>IF(I414="完了",0, IF(TODAY()&gt;F414, TODAY()-F414, 0))</f>
+        <f>IF(I414="完了","", IF(OR(F414="", F414=0), "", IF(TODAY()&gt;F414, TODAY()-F414, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="N415">
-        <f>IF(I415="完了",0, IF(TODAY()&gt;F415, TODAY()-F415, 0))</f>
+        <f>IF(I415="完了","", IF(OR(F415="", F415=0), "", IF(TODAY()&gt;F415, TODAY()-F415, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="N416">
-        <f>IF(I416="完了",0, IF(TODAY()&gt;F416, TODAY()-F416, 0))</f>
+        <f>IF(I416="完了","", IF(OR(F416="", F416=0), "", IF(TODAY()&gt;F416, TODAY()-F416, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="N417">
-        <f>IF(I417="完了",0, IF(TODAY()&gt;F417, TODAY()-F417, 0))</f>
+        <f>IF(I417="完了","", IF(OR(F417="", F417=0), "", IF(TODAY()&gt;F417, TODAY()-F417, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="N418">
-        <f>IF(I418="完了",0, IF(TODAY()&gt;F418, TODAY()-F418, 0))</f>
+        <f>IF(I418="完了","", IF(OR(F418="", F418=0), "", IF(TODAY()&gt;F418, TODAY()-F418, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="N419">
-        <f>IF(I419="完了",0, IF(TODAY()&gt;F419, TODAY()-F419, 0))</f>
+        <f>IF(I419="完了","", IF(OR(F419="", F419=0), "", IF(TODAY()&gt;F419, TODAY()-F419, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="N420">
-        <f>IF(I420="完了",0, IF(TODAY()&gt;F420, TODAY()-F420, 0))</f>
+        <f>IF(I420="完了","", IF(OR(F420="", F420=0), "", IF(TODAY()&gt;F420, TODAY()-F420, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="N421">
-        <f>IF(I421="完了",0, IF(TODAY()&gt;F421, TODAY()-F421, 0))</f>
+        <f>IF(I421="完了","", IF(OR(F421="", F421=0), "", IF(TODAY()&gt;F421, TODAY()-F421, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="N422">
-        <f>IF(I422="完了",0, IF(TODAY()&gt;F422, TODAY()-F422, 0))</f>
+        <f>IF(I422="完了","", IF(OR(F422="", F422=0), "", IF(TODAY()&gt;F422, TODAY()-F422, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="N423">
-        <f>IF(I423="完了",0, IF(TODAY()&gt;F423, TODAY()-F423, 0))</f>
+        <f>IF(I423="完了","", IF(OR(F423="", F423=0), "", IF(TODAY()&gt;F423, TODAY()-F423, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="N424">
-        <f>IF(I424="完了",0, IF(TODAY()&gt;F424, TODAY()-F424, 0))</f>
+        <f>IF(I424="完了","", IF(OR(F424="", F424=0), "", IF(TODAY()&gt;F424, TODAY()-F424, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="N425">
-        <f>IF(I425="完了",0, IF(TODAY()&gt;F425, TODAY()-F425, 0))</f>
+        <f>IF(I425="完了","", IF(OR(F425="", F425=0), "", IF(TODAY()&gt;F425, TODAY()-F425, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="N426">
-        <f>IF(I426="完了",0, IF(TODAY()&gt;F426, TODAY()-F426, 0))</f>
+        <f>IF(I426="完了","", IF(OR(F426="", F426=0), "", IF(TODAY()&gt;F426, TODAY()-F426, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="N427">
-        <f>IF(I427="完了",0, IF(TODAY()&gt;F427, TODAY()-F427, 0))</f>
+        <f>IF(I427="完了","", IF(OR(F427="", F427=0), "", IF(TODAY()&gt;F427, TODAY()-F427, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="N428">
-        <f>IF(I428="完了",0, IF(TODAY()&gt;F428, TODAY()-F428, 0))</f>
+        <f>IF(I428="完了","", IF(OR(F428="", F428=0), "", IF(TODAY()&gt;F428, TODAY()-F428, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="N429">
-        <f>IF(I429="完了",0, IF(TODAY()&gt;F429, TODAY()-F429, 0))</f>
+        <f>IF(I429="完了","", IF(OR(F429="", F429=0), "", IF(TODAY()&gt;F429, TODAY()-F429, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="N430">
-        <f>IF(I430="完了",0, IF(TODAY()&gt;F430, TODAY()-F430, 0))</f>
+        <f>IF(I430="完了","", IF(OR(F430="", F430=0), "", IF(TODAY()&gt;F430, TODAY()-F430, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="N431">
-        <f>IF(I431="完了",0, IF(TODAY()&gt;F431, TODAY()-F431, 0))</f>
+        <f>IF(I431="完了","", IF(OR(F431="", F431=0), "", IF(TODAY()&gt;F431, TODAY()-F431, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="N432">
-        <f>IF(I432="完了",0, IF(TODAY()&gt;F432, TODAY()-F432, 0))</f>
+        <f>IF(I432="完了","", IF(OR(F432="", F432=0), "", IF(TODAY()&gt;F432, TODAY()-F432, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="N433">
-        <f>IF(I433="完了",0, IF(TODAY()&gt;F433, TODAY()-F433, 0))</f>
+        <f>IF(I433="完了","", IF(OR(F433="", F433=0), "", IF(TODAY()&gt;F433, TODAY()-F433, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="N434">
-        <f>IF(I434="完了",0, IF(TODAY()&gt;F434, TODAY()-F434, 0))</f>
+        <f>IF(I434="完了","", IF(OR(F434="", F434=0), "", IF(TODAY()&gt;F434, TODAY()-F434, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="N435">
-        <f>IF(I435="完了",0, IF(TODAY()&gt;F435, TODAY()-F435, 0))</f>
+        <f>IF(I435="完了","", IF(OR(F435="", F435=0), "", IF(TODAY()&gt;F435, TODAY()-F435, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="N436">
-        <f>IF(I436="完了",0, IF(TODAY()&gt;F436, TODAY()-F436, 0))</f>
+        <f>IF(I436="完了","", IF(OR(F436="", F436=0), "", IF(TODAY()&gt;F436, TODAY()-F436, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="N437">
-        <f>IF(I437="完了",0, IF(TODAY()&gt;F437, TODAY()-F437, 0))</f>
+        <f>IF(I437="完了","", IF(OR(F437="", F437=0), "", IF(TODAY()&gt;F437, TODAY()-F437, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="N438">
-        <f>IF(I438="完了",0, IF(TODAY()&gt;F438, TODAY()-F438, 0))</f>
+        <f>IF(I438="完了","", IF(OR(F438="", F438=0), "", IF(TODAY()&gt;F438, TODAY()-F438, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="N439">
-        <f>IF(I439="完了",0, IF(TODAY()&gt;F439, TODAY()-F439, 0))</f>
+        <f>IF(I439="完了","", IF(OR(F439="", F439=0), "", IF(TODAY()&gt;F439, TODAY()-F439, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N440">
-        <f>IF(I440="完了",0, IF(TODAY()&gt;F440, TODAY()-F440, 0))</f>
+        <f>IF(I440="完了","", IF(OR(F440="", F440=0), "", IF(TODAY()&gt;F440, TODAY()-F440, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="N441">
-        <f>IF(I441="完了",0, IF(TODAY()&gt;F441, TODAY()-F441, 0))</f>
+        <f>IF(I441="完了","", IF(OR(F441="", F441=0), "", IF(TODAY()&gt;F441, TODAY()-F441, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="N442">
-        <f>IF(I442="完了",0, IF(TODAY()&gt;F442, TODAY()-F442, 0))</f>
+        <f>IF(I442="完了","", IF(OR(F442="", F442=0), "", IF(TODAY()&gt;F442, TODAY()-F442, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="N443">
-        <f>IF(I443="完了",0, IF(TODAY()&gt;F443, TODAY()-F443, 0))</f>
+        <f>IF(I443="完了","", IF(OR(F443="", F443=0), "", IF(TODAY()&gt;F443, TODAY()-F443, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="N444">
-        <f>IF(I444="完了",0, IF(TODAY()&gt;F444, TODAY()-F444, 0))</f>
+        <f>IF(I444="完了","", IF(OR(F444="", F444=0), "", IF(TODAY()&gt;F444, TODAY()-F444, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="N445">
-        <f>IF(I445="完了",0, IF(TODAY()&gt;F445, TODAY()-F445, 0))</f>
+        <f>IF(I445="完了","", IF(OR(F445="", F445=0), "", IF(TODAY()&gt;F445, TODAY()-F445, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="N446">
-        <f>IF(I446="完了",0, IF(TODAY()&gt;F446, TODAY()-F446, 0))</f>
+        <f>IF(I446="完了","", IF(OR(F446="", F446=0), "", IF(TODAY()&gt;F446, TODAY()-F446, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="N447">
-        <f>IF(I447="完了",0, IF(TODAY()&gt;F447, TODAY()-F447, 0))</f>
+        <f>IF(I447="完了","", IF(OR(F447="", F447=0), "", IF(TODAY()&gt;F447, TODAY()-F447, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="N448">
-        <f>IF(I448="完了",0, IF(TODAY()&gt;F448, TODAY()-F448, 0))</f>
+        <f>IF(I448="完了","", IF(OR(F448="", F448=0), "", IF(TODAY()&gt;F448, TODAY()-F448, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="N449">
-        <f>IF(I449="完了",0, IF(TODAY()&gt;F449, TODAY()-F449, 0))</f>
+        <f>IF(I449="完了","", IF(OR(F449="", F449=0), "", IF(TODAY()&gt;F449, TODAY()-F449, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="N450">
-        <f>IF(I450="完了",0, IF(TODAY()&gt;F450, TODAY()-F450, 0))</f>
+        <f>IF(I450="完了","", IF(OR(F450="", F450=0), "", IF(TODAY()&gt;F450, TODAY()-F450, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="N451">
-        <f>IF(I451="完了",0, IF(TODAY()&gt;F451, TODAY()-F451, 0))</f>
+        <f>IF(I451="完了","", IF(OR(F451="", F451=0), "", IF(TODAY()&gt;F451, TODAY()-F451, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="N452">
-        <f>IF(I452="完了",0, IF(TODAY()&gt;F452, TODAY()-F452, 0))</f>
+        <f>IF(I452="完了","", IF(OR(F452="", F452=0), "", IF(TODAY()&gt;F452, TODAY()-F452, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="N453">
-        <f>IF(I453="完了",0, IF(TODAY()&gt;F453, TODAY()-F453, 0))</f>
+        <f>IF(I453="完了","", IF(OR(F453="", F453=0), "", IF(TODAY()&gt;F453, TODAY()-F453, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="N454">
-        <f>IF(I454="完了",0, IF(TODAY()&gt;F454, TODAY()-F454, 0))</f>
+        <f>IF(I454="完了","", IF(OR(F454="", F454=0), "", IF(TODAY()&gt;F454, TODAY()-F454, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="N455">
-        <f>IF(I455="完了",0, IF(TODAY()&gt;F455, TODAY()-F455, 0))</f>
+        <f>IF(I455="完了","", IF(OR(F455="", F455=0), "", IF(TODAY()&gt;F455, TODAY()-F455, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="N456">
-        <f>IF(I456="完了",0, IF(TODAY()&gt;F456, TODAY()-F456, 0))</f>
+        <f>IF(I456="完了","", IF(OR(F456="", F456=0), "", IF(TODAY()&gt;F456, TODAY()-F456, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="N457">
-        <f>IF(I457="完了",0, IF(TODAY()&gt;F457, TODAY()-F457, 0))</f>
+        <f>IF(I457="完了","", IF(OR(F457="", F457=0), "", IF(TODAY()&gt;F457, TODAY()-F457, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="N458">
-        <f>IF(I458="完了",0, IF(TODAY()&gt;F458, TODAY()-F458, 0))</f>
+        <f>IF(I458="完了","", IF(OR(F458="", F458=0), "", IF(TODAY()&gt;F458, TODAY()-F458, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="N459">
-        <f>IF(I459="完了",0, IF(TODAY()&gt;F459, TODAY()-F459, 0))</f>
+        <f>IF(I459="完了","", IF(OR(F459="", F459=0), "", IF(TODAY()&gt;F459, TODAY()-F459, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="N460">
-        <f>IF(I460="完了",0, IF(TODAY()&gt;F460, TODAY()-F460, 0))</f>
+        <f>IF(I460="完了","", IF(OR(F460="", F460=0), "", IF(TODAY()&gt;F460, TODAY()-F460, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="N461">
-        <f>IF(I461="完了",0, IF(TODAY()&gt;F461, TODAY()-F461, 0))</f>
+        <f>IF(I461="完了","", IF(OR(F461="", F461=0), "", IF(TODAY()&gt;F461, TODAY()-F461, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="N462">
-        <f>IF(I462="完了",0, IF(TODAY()&gt;F462, TODAY()-F462, 0))</f>
+        <f>IF(I462="完了","", IF(OR(F462="", F462=0), "", IF(TODAY()&gt;F462, TODAY()-F462, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="N463">
-        <f>IF(I463="完了",0, IF(TODAY()&gt;F463, TODAY()-F463, 0))</f>
+        <f>IF(I463="完了","", IF(OR(F463="", F463=0), "", IF(TODAY()&gt;F463, TODAY()-F463, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="N464">
-        <f>IF(I464="完了",0, IF(TODAY()&gt;F464, TODAY()-F464, 0))</f>
+        <f>IF(I464="完了","", IF(OR(F464="", F464=0), "", IF(TODAY()&gt;F464, TODAY()-F464, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="N465">
-        <f>IF(I465="完了",0, IF(TODAY()&gt;F465, TODAY()-F465, 0))</f>
+        <f>IF(I465="完了","", IF(OR(F465="", F465=0), "", IF(TODAY()&gt;F465, TODAY()-F465, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="N466">
-        <f>IF(I466="完了",0, IF(TODAY()&gt;F466, TODAY()-F466, 0))</f>
+        <f>IF(I466="完了","", IF(OR(F466="", F466=0), "", IF(TODAY()&gt;F466, TODAY()-F466, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="N467">
-        <f>IF(I467="完了",0, IF(TODAY()&gt;F467, TODAY()-F467, 0))</f>
+        <f>IF(I467="完了","", IF(OR(F467="", F467=0), "", IF(TODAY()&gt;F467, TODAY()-F467, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="N468">
-        <f>IF(I468="完了",0, IF(TODAY()&gt;F468, TODAY()-F468, 0))</f>
+        <f>IF(I468="完了","", IF(OR(F468="", F468=0), "", IF(TODAY()&gt;F468, TODAY()-F468, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="N469">
-        <f>IF(I469="完了",0, IF(TODAY()&gt;F469, TODAY()-F469, 0))</f>
+        <f>IF(I469="完了","", IF(OR(F469="", F469=0), "", IF(TODAY()&gt;F469, TODAY()-F469, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="N470">
-        <f>IF(I470="完了",0, IF(TODAY()&gt;F470, TODAY()-F470, 0))</f>
+        <f>IF(I470="完了","", IF(OR(F470="", F470=0), "", IF(TODAY()&gt;F470, TODAY()-F470, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="N471">
-        <f>IF(I471="完了",0, IF(TODAY()&gt;F471, TODAY()-F471, 0))</f>
+        <f>IF(I471="完了","", IF(OR(F471="", F471=0), "", IF(TODAY()&gt;F471, TODAY()-F471, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="N472">
-        <f>IF(I472="完了",0, IF(TODAY()&gt;F472, TODAY()-F472, 0))</f>
+        <f>IF(I472="完了","", IF(OR(F472="", F472=0), "", IF(TODAY()&gt;F472, TODAY()-F472, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="N473">
-        <f>IF(I473="完了",0, IF(TODAY()&gt;F473, TODAY()-F473, 0))</f>
+        <f>IF(I473="完了","", IF(OR(F473="", F473=0), "", IF(TODAY()&gt;F473, TODAY()-F473, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="N474">
-        <f>IF(I474="完了",0, IF(TODAY()&gt;F474, TODAY()-F474, 0))</f>
+        <f>IF(I474="完了","", IF(OR(F474="", F474=0), "", IF(TODAY()&gt;F474, TODAY()-F474, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="N475">
-        <f>IF(I475="完了",0, IF(TODAY()&gt;F475, TODAY()-F475, 0))</f>
+        <f>IF(I475="完了","", IF(OR(F475="", F475=0), "", IF(TODAY()&gt;F475, TODAY()-F475, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="N476">
-        <f>IF(I476="完了",0, IF(TODAY()&gt;F476, TODAY()-F476, 0))</f>
+        <f>IF(I476="完了","", IF(OR(F476="", F476=0), "", IF(TODAY()&gt;F476, TODAY()-F476, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="N477">
-        <f>IF(I477="完了",0, IF(TODAY()&gt;F477, TODAY()-F477, 0))</f>
+        <f>IF(I477="完了","", IF(OR(F477="", F477=0), "", IF(TODAY()&gt;F477, TODAY()-F477, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="N478">
-        <f>IF(I478="完了",0, IF(TODAY()&gt;F478, TODAY()-F478, 0))</f>
+        <f>IF(I478="完了","", IF(OR(F478="", F478=0), "", IF(TODAY()&gt;F478, TODAY()-F478, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="N479">
-        <f>IF(I479="完了",0, IF(TODAY()&gt;F479, TODAY()-F479, 0))</f>
+        <f>IF(I479="完了","", IF(OR(F479="", F479=0), "", IF(TODAY()&gt;F479, TODAY()-F479, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="N480">
-        <f>IF(I480="完了",0, IF(TODAY()&gt;F480, TODAY()-F480, 0))</f>
+        <f>IF(I480="完了","", IF(OR(F480="", F480=0), "", IF(TODAY()&gt;F480, TODAY()-F480, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="N481">
-        <f>IF(I481="完了",0, IF(TODAY()&gt;F481, TODAY()-F481, 0))</f>
+        <f>IF(I481="完了","", IF(OR(F481="", F481=0), "", IF(TODAY()&gt;F481, TODAY()-F481, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="N482">
-        <f>IF(I482="完了",0, IF(TODAY()&gt;F482, TODAY()-F482, 0))</f>
+        <f>IF(I482="完了","", IF(OR(F482="", F482=0), "", IF(TODAY()&gt;F482, TODAY()-F482, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="N483">
-        <f>IF(I483="完了",0, IF(TODAY()&gt;F483, TODAY()-F483, 0))</f>
+        <f>IF(I483="完了","", IF(OR(F483="", F483=0), "", IF(TODAY()&gt;F483, TODAY()-F483, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="N484">
-        <f>IF(I484="完了",0, IF(TODAY()&gt;F484, TODAY()-F484, 0))</f>
+        <f>IF(I484="完了","", IF(OR(F484="", F484=0), "", IF(TODAY()&gt;F484, TODAY()-F484, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="N485">
-        <f>IF(I485="完了",0, IF(TODAY()&gt;F485, TODAY()-F485, 0))</f>
+        <f>IF(I485="完了","", IF(OR(F485="", F485=0), "", IF(TODAY()&gt;F485, TODAY()-F485, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="N486">
-        <f>IF(I486="完了",0, IF(TODAY()&gt;F486, TODAY()-F486, 0))</f>
+        <f>IF(I486="完了","", IF(OR(F486="", F486=0), "", IF(TODAY()&gt;F486, TODAY()-F486, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="N487">
-        <f>IF(I487="完了",0, IF(TODAY()&gt;F487, TODAY()-F487, 0))</f>
+        <f>IF(I487="完了","", IF(OR(F487="", F487=0), "", IF(TODAY()&gt;F487, TODAY()-F487, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="N488">
-        <f>IF(I488="完了",0, IF(TODAY()&gt;F488, TODAY()-F488, 0))</f>
+        <f>IF(I488="完了","", IF(OR(F488="", F488=0), "", IF(TODAY()&gt;F488, TODAY()-F488, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="N489">
-        <f>IF(I489="完了",0, IF(TODAY()&gt;F489, TODAY()-F489, 0))</f>
+        <f>IF(I489="完了","", IF(OR(F489="", F489=0), "", IF(TODAY()&gt;F489, TODAY()-F489, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="N490">
-        <f>IF(I490="完了",0, IF(TODAY()&gt;F490, TODAY()-F490, 0))</f>
+        <f>IF(I490="完了","", IF(OR(F490="", F490=0), "", IF(TODAY()&gt;F490, TODAY()-F490, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="N491">
-        <f>IF(I491="完了",0, IF(TODAY()&gt;F491, TODAY()-F491, 0))</f>
+        <f>IF(I491="完了","", IF(OR(F491="", F491=0), "", IF(TODAY()&gt;F491, TODAY()-F491, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="N492">
-        <f>IF(I492="完了",0, IF(TODAY()&gt;F492, TODAY()-F492, 0))</f>
+        <f>IF(I492="完了","", IF(OR(F492="", F492=0), "", IF(TODAY()&gt;F492, TODAY()-F492, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="N493">
-        <f>IF(I493="完了",0, IF(TODAY()&gt;F493, TODAY()-F493, 0))</f>
+        <f>IF(I493="完了","", IF(OR(F493="", F493=0), "", IF(TODAY()&gt;F493, TODAY()-F493, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="N494">
-        <f>IF(I494="完了",0, IF(TODAY()&gt;F494, TODAY()-F494, 0))</f>
+        <f>IF(I494="完了","", IF(OR(F494="", F494=0), "", IF(TODAY()&gt;F494, TODAY()-F494, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="N495">
-        <f>IF(I495="完了",0, IF(TODAY()&gt;F495, TODAY()-F495, 0))</f>
+        <f>IF(I495="完了","", IF(OR(F495="", F495=0), "", IF(TODAY()&gt;F495, TODAY()-F495, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="N496">
-        <f>IF(I496="完了",0, IF(TODAY()&gt;F496, TODAY()-F496, 0))</f>
+        <f>IF(I496="完了","", IF(OR(F496="", F496=0), "", IF(TODAY()&gt;F496, TODAY()-F496, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="N497">
-        <f>IF(I497="完了",0, IF(TODAY()&gt;F497, TODAY()-F497, 0))</f>
+        <f>IF(I497="完了","", IF(OR(F497="", F497=0), "", IF(TODAY()&gt;F497, TODAY()-F497, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="N498">
-        <f>IF(I498="完了",0, IF(TODAY()&gt;F498, TODAY()-F498, 0))</f>
+        <f>IF(I498="完了","", IF(OR(F498="", F498=0), "", IF(TODAY()&gt;F498, TODAY()-F498, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="N499">
-        <f>IF(I499="完了",0, IF(TODAY()&gt;F499, TODAY()-F499, 0))</f>
+        <f>IF(I499="完了","", IF(OR(F499="", F499=0), "", IF(TODAY()&gt;F499, TODAY()-F499, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="N500">
-        <f>IF(I500="完了",0, IF(TODAY()&gt;F500, TODAY()-F500, 0))</f>
+        <f>IF(I500="完了","", IF(OR(F500="", F500=0), "", IF(TODAY()&gt;F500, TODAY()-F500, "")))</f>
         <v>0</v>
       </c>
     </row>
